--- a/GasGrid/PopulatingTools/Mapping and Location Tools/location.xlsx
+++ b/GasGrid/PopulatingTools/Mapping and Location Tools/location.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="664">
+  <si>
+    <t>INTAKES</t>
+  </si>
+  <si>
+    <t>BACTON BBL</t>
+  </si>
   <si>
     <t>BACTON IC</t>
   </si>
@@ -274,16 +280,16 @@
     <t>0.233</t>
   </si>
   <si>
-    <t>Auckland</t>
+    <t>COMPRESSORS</t>
+  </si>
+  <si>
+    <t>Bishop Auckland</t>
   </si>
   <si>
     <t>Carnforth</t>
   </si>
   <si>
-    <t>Nether</t>
-  </si>
-  <si>
-    <t>Kellett</t>
+    <t>Nether Kellett</t>
   </si>
   <si>
     <t>Warrington</t>
@@ -349,10 +355,7 @@
     <t>54.127363</t>
   </si>
   <si>
-    <t>51.1263069</t>
-  </si>
-  <si>
-    <t>51.9503439</t>
+    <t>54.1089309</t>
   </si>
   <si>
     <t>53.3900441</t>
@@ -415,10 +418,7 @@
     <t>-2.768112</t>
   </si>
   <si>
-    <t>-1.5689951</t>
-  </si>
-  <si>
-    <t>-0.2733551</t>
+    <t>-2.7531009</t>
   </si>
   <si>
     <t>-2.5969501</t>
@@ -475,549 +475,525 @@
     <t>-3.440337</t>
   </si>
   <si>
-    <t xml:space="preserve"> Barrow</t>
+    <t>OFFTAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aberdeen, SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aldbrough</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alrewas, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alrewas, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AM Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armadale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aspley, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asselby, NE</t>
+  </si>
+  <si>
+    <t>Bishop Auckland, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bishop Auckland, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audley, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Audley, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austrey, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avonmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aylesbeare, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacton, EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacton BBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baglan Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baldersby, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Balgray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barrow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BASF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bathgate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blaby, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BlackBridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blackburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blackrod, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blyborough, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOC Teeside</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BP Grngmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BP Saltend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Braishfield, SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brdgewater </t>
   </si>
   <si>
     <t xml:space="preserve"> Brent </t>
   </si>
   <si>
-    <t xml:space="preserve"> Burnhervie, SC</t>
+    <t xml:space="preserve"> Brisley, EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broxburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burley Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burnhervie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burton Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caldecott</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Careston</t>
   </si>
   <si>
     <t xml:space="preserve"> Carrington</t>
   </si>
   <si>
+    <t xml:space="preserve"> Centrax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choakford, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Churchovr, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cirencester, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coffinswell, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coldstream, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corbridge, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coryton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cottam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cowpen Bewley, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Damhead Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deeside</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Didcot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dowlais, WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drointon, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drum, SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DyffrynClyd, WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DynevorArms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EastonGrey, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eccleston, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Epping Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evesham, SW</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Farningham, SE</t>
   </si>
   <si>
+    <t xml:space="preserve"> Fiddington, SW</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Fordoun</t>
   </si>
   <si>
-    <t xml:space="preserve"> Keadby </t>
+    <t xml:space="preserve"> Ganstead, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gilwern, WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glenmavis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Goole Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gosberton, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gowkhall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Great Wilbraham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Great Yarmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guyzance, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hardwick, SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hatfield Moor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HillTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hole House Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Holmes Chapel, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horndon, NT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hornsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humbleton, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humbly Grove</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICI Billinghm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICI Runcorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICI Svrnside</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ilchester, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Immingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ipsden, SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keadby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keld, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kenn, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KingsLynn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kinknockie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kirkstead, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Langage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Langholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leamington, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LittletnDrew, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lockerbie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LowerQuinton, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LtBarford</t>
+  </si>
+  <si>
+    <t>Burdon, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lupton, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LuxboroughLn, NT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maelor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malpas, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mappowder, SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marchwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MatchngGreen, EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melkinthorpe, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mickle Trafford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Milwich, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Market Harborogh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moffat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Murco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NetherHwclgh</t>
   </si>
   <si>
     <t xml:space="preserve"> PalmPaper</t>
   </si>
   <si>
+    <t xml:space="preserve"> Pannal, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partington, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paull, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peterborough</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peterhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peters Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conoco Philips Teeside</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pickering, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pitcairn Fife</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pucklechurch, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rawcliffe, NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rocksavage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roosecote</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ross, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ross On Wye</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RoudhamHeath, EA</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Rough</t>
   </si>
   <si>
+    <t xml:space="preserve"> Royston, EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rugby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RyeHouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saltend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saltwick, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SaltwickH, NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samlesbury, NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seabank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seabank, SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SeabankB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sellafield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shorne, SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shotton Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shustoke, WM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Silk Willough</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soutra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spalding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stallingbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Staythorpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StFergus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stratford Upon Avon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stublach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SuttonBridge, EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SuttonBridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tatsfield, SE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Teesside NSMP</t>
   </si>
   <si>
-    <t xml:space="preserve"> West Burton </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apache </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keadby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rough </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> West Burton PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aberdeen, SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aldbrough</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alrewas, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alrewas, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AM Paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apache</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Armadale</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aspley, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asselby, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Auckland, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Audley, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Audley, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Austrey, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avonmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aylesbeare, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bacton, EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bacton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bacton BBL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baglan Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baldersby, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Balgray</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barrow </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BASF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bathgate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blaby, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BlackBridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blackburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blackrod, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blyborough, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOC Teeside</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BP Grngmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BP Saltend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Braishfield, SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brdgewater </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brigg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brisley, EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Broxburn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Burley Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Burnhervie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Burton Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Caldecott</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Careston</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Centrax</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Choakford, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Churchovr, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cirencester, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coffinswell, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coldstream, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Corbridge, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Corby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coryton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cottam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cowpen Bewley, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Damhead Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Deeside</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Didcot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dowlais, WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drointon, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drum, SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DyffrynClyd, WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DynevorArms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EastonGrey, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eccleston, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Epping Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Evesham, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fiddington, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ganstead, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gilwern, WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Glenmavis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Goole Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gosberton, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gowkhall</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Great Wilbraham</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Great Yarmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guyzance, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hardwick, SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hatfield Moor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HillTop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hole House Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Holmes Chapel, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horndon, NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hornsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humbleton, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humbly Grove</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hume</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ICI Billinghm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ICI Runcorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ICI Svrnside</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ilchester, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Immingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ipsden, SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keld, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kenn, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KingsLynn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kinknockie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kirkstead, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Langage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Langholm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Leamington, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LittletnDrew, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lockerbie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LowerQuinton, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LtBarford</t>
-  </si>
-  <si>
-    <t>Burdon, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lupton, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LuxboroughLn, NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maelor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Malpas, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mappowder, SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marchwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MatchngGreen, EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medway</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Melkinthorpe, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mickle Trafford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Milwich, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Market Harborogh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Moffat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Murco</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NetherHwclgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pannal, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Partington</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Partington, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Paull, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peterborough</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peterhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peters Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Conoco Philips Teeside</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pickering, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pitcairn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pucklechurch, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rawcliffe, NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rocksavage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roosecote</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ross, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ross On Wye</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RoudhamHeath, EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Royston, EA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rugby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RyeHouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Saltend</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Saltwick, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SaltwickH, NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Samlesbury, NW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seabank</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seabank, SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SeabankB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sellafield</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shorne, SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shotton Paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shustoke, WM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Silk Willough</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soutra</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spalding</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stallingbor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Staythorpe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> StFergus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stratford Upon Avon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stublach</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SuttonBridge, EM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SuttonBridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tatsfield, SE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ThorntonCurt, EM</t>
   </si>
   <si>
@@ -1070,6 +1046,966 @@
   </si>
   <si>
     <t xml:space="preserve"> Yelverton</t>
+  </si>
+  <si>
+    <t>53.8285919</t>
+  </si>
+  <si>
+    <t>51.5118676</t>
+  </si>
+  <si>
+    <t>57.064863</t>
+  </si>
+  <si>
+    <t>52.97204079999999</t>
+  </si>
+  <si>
+    <t>53.7444253</t>
+  </si>
+  <si>
+    <t>53.05489499999999</t>
+  </si>
+  <si>
+    <t>52.65568469999999</t>
+  </si>
+  <si>
+    <t>51.5022576</t>
+  </si>
+  <si>
+    <t>50.71741249999999</t>
+  </si>
+  <si>
+    <t>51.6129389</t>
+  </si>
+  <si>
+    <t>54.205613</t>
+  </si>
+  <si>
+    <t>55.7845661</t>
+  </si>
+  <si>
+    <t>51.536563</t>
+  </si>
+  <si>
+    <t>52.2925695</t>
+  </si>
+  <si>
+    <t>55.9024</t>
+  </si>
+  <si>
+    <t>52.5750058</t>
+  </si>
+  <si>
+    <t>51.714479</t>
+  </si>
+  <si>
+    <t>53.748575</t>
+  </si>
+  <si>
+    <t>53.5873599</t>
+  </si>
+  <si>
+    <t>53.43695049999999</t>
+  </si>
+  <si>
+    <t>54.5978222</t>
+  </si>
+  <si>
+    <t>56.00870889999999</t>
+  </si>
+  <si>
+    <t>53.747488</t>
+  </si>
+  <si>
+    <t>51.0243624</t>
+  </si>
+  <si>
+    <t>51.127889</t>
+  </si>
+  <si>
+    <t>51.5672808</t>
+  </si>
+  <si>
+    <t>52.7561736</t>
+  </si>
+  <si>
+    <t>55.934161</t>
+  </si>
+  <si>
+    <t>54.0016112</t>
+  </si>
+  <si>
+    <t>57.263332</t>
+  </si>
+  <si>
+    <t>53.2605042</t>
+  </si>
+  <si>
+    <t>52.308135</t>
+  </si>
+  <si>
+    <t>56.728917</t>
+  </si>
+  <si>
+    <t>53.4334046</t>
+  </si>
+  <si>
+    <t>50.5265808</t>
+  </si>
+  <si>
+    <t>50.37480919999999</t>
+  </si>
+  <si>
+    <t>51.718495</t>
+  </si>
+  <si>
+    <t>50.506085</t>
+  </si>
+  <si>
+    <t>55.65132000000001</t>
+  </si>
+  <si>
+    <t>54.97404599999999</t>
+  </si>
+  <si>
+    <t>52.49229829999999</t>
+  </si>
+  <si>
+    <t>50.63261</t>
+  </si>
+  <si>
+    <t>53.31341200000001</t>
+  </si>
+  <si>
+    <t>54.6089519</t>
+  </si>
+  <si>
+    <t>51.4253164</t>
+  </si>
+  <si>
+    <t>53.1997351</t>
+  </si>
+  <si>
+    <t>51.60804400000001</t>
+  </si>
+  <si>
+    <t>51.76181099999999</t>
+  </si>
+  <si>
+    <t>52.839579</t>
+  </si>
+  <si>
+    <t>54.9070394</t>
+  </si>
+  <si>
+    <t>53.2103663</t>
+  </si>
+  <si>
+    <t>51.58844939999999</t>
+  </si>
+  <si>
+    <t>53.646615</t>
+  </si>
+  <si>
+    <t>53.273924</t>
+  </si>
+  <si>
+    <t>51.7258497</t>
+  </si>
+  <si>
+    <t>52.09214900000001</t>
+  </si>
+  <si>
+    <t>51.38096299999999</t>
+  </si>
+  <si>
+    <t>51.161581</t>
+  </si>
+  <si>
+    <t>56.876579</t>
+  </si>
+  <si>
+    <t>53.793563</t>
+  </si>
+  <si>
+    <t>51.82351</t>
+  </si>
+  <si>
+    <t>50.26389529999999</t>
+  </si>
+  <si>
+    <t>52.87059199999999</t>
+  </si>
+  <si>
+    <t>56.085145</t>
+  </si>
+  <si>
+    <t>52.1920718</t>
+  </si>
+  <si>
+    <t>52.598233</t>
+  </si>
+  <si>
+    <t>55.330004</t>
+  </si>
+  <si>
+    <t>51.5159594</t>
+  </si>
+  <si>
+    <t>53.6363369</t>
+  </si>
+  <si>
+    <t>54.3517192</t>
+  </si>
+  <si>
+    <t>53.201306</t>
+  </si>
+  <si>
+    <t>51.5237407</t>
+  </si>
+  <si>
+    <t>53.793659</t>
+  </si>
+  <si>
+    <t>51.1938105</t>
+  </si>
+  <si>
+    <t>55.66544099999999</t>
+  </si>
+  <si>
+    <t>54.612537</t>
+  </si>
+  <si>
+    <t>53.32502419999999</t>
+  </si>
+  <si>
+    <t>52.7034175</t>
+  </si>
+  <si>
+    <t>51.004774</t>
+  </si>
+  <si>
+    <t>53.614012</t>
+  </si>
+  <si>
+    <t>51.5616704</t>
+  </si>
+  <si>
+    <t>53.59669299999999</t>
+  </si>
+  <si>
+    <t>54.40384</t>
+  </si>
+  <si>
+    <t>50.65650309999999</t>
+  </si>
+  <si>
+    <t>57.46348500000001</t>
+  </si>
+  <si>
+    <t>53.14275199999999</t>
+  </si>
+  <si>
+    <t>50.3883105</t>
+  </si>
+  <si>
+    <t>55.153062</t>
+  </si>
+  <si>
+    <t>52.2851905</t>
+  </si>
+  <si>
+    <t>50.77721349999999</t>
+  </si>
+  <si>
+    <t>55.12224500000001</t>
+  </si>
+  <si>
+    <t>52.123593</t>
+  </si>
+  <si>
+    <t>52.242056</t>
+  </si>
+  <si>
+    <t>54.8568337</t>
+  </si>
+  <si>
+    <t>54.225241</t>
+  </si>
+  <si>
+    <t>51.61675260000001</t>
+  </si>
+  <si>
+    <t>52.9274434</t>
+  </si>
+  <si>
+    <t>53.019049</t>
+  </si>
+  <si>
+    <t>50.853807</t>
+  </si>
+  <si>
+    <t>50.8918843</t>
+  </si>
+  <si>
+    <t>51.7772499</t>
+  </si>
+  <si>
+    <t>51.4047432</t>
+  </si>
+  <si>
+    <t>54.6199679</t>
+  </si>
+  <si>
+    <t>53.219016</t>
+  </si>
+  <si>
+    <t>52.8876511</t>
+  </si>
+  <si>
+    <t>52.475769</t>
+  </si>
+  <si>
+    <t>53.1012776</t>
+  </si>
+  <si>
+    <t>52.1808215</t>
+  </si>
+  <si>
+    <t>52.7320083</t>
+  </si>
+  <si>
+    <t>53.956844</t>
+  </si>
+  <si>
+    <t>53.7190697</t>
+  </si>
+  <si>
+    <t>57.50812299999999</t>
+  </si>
+  <si>
+    <t>51.8580018</t>
+  </si>
+  <si>
+    <t>54.61630299999999</t>
+  </si>
+  <si>
+    <t>54.243925</t>
+  </si>
+  <si>
+    <t>56.2108015</t>
+  </si>
+  <si>
+    <t>51.48664600000001</t>
+  </si>
+  <si>
+    <t>53.9843868</t>
+  </si>
+  <si>
+    <t>53.3154401</t>
+  </si>
+  <si>
+    <t>54.1156021</t>
+  </si>
+  <si>
+    <t>51.91445</t>
+  </si>
+  <si>
+    <t>52.45</t>
+  </si>
+  <si>
+    <t>51.5211024</t>
+  </si>
+  <si>
+    <t>52.048142</t>
+  </si>
+  <si>
+    <t>52.370878</t>
+  </si>
+  <si>
+    <t>51.7675123</t>
+  </si>
+  <si>
+    <t>53.7465342</t>
+  </si>
+  <si>
+    <t>54.481737</t>
+  </si>
+  <si>
+    <t>53.7643642</t>
+  </si>
+  <si>
+    <t>51.5393248</t>
+  </si>
+  <si>
+    <t>54.4250625</t>
+  </si>
+  <si>
+    <t>51.4129829</t>
+  </si>
+  <si>
+    <t>53.2358973</t>
+  </si>
+  <si>
+    <t>52.5148844</t>
+  </si>
+  <si>
+    <t>52.97282999999999</t>
+  </si>
+  <si>
+    <t>55.81585029999999</t>
+  </si>
+  <si>
+    <t>52.79010160000001</t>
+  </si>
+  <si>
+    <t>53.58584</t>
+  </si>
+  <si>
+    <t>53.077959</t>
+  </si>
+  <si>
+    <t>52.19173</t>
+  </si>
+  <si>
+    <t>53.2293333</t>
+  </si>
+  <si>
+    <t>52.769383</t>
+  </si>
+  <si>
+    <t>51.290898</t>
+  </si>
+  <si>
+    <t>57.1064575</t>
+  </si>
+  <si>
+    <t>54.9013657</t>
+  </si>
+  <si>
+    <t>54.96919870000001</t>
+  </si>
+  <si>
+    <t>54.330042</t>
+  </si>
+  <si>
+    <t>54.74285</t>
+  </si>
+  <si>
+    <t>53.8503468</t>
+  </si>
+  <si>
+    <t>52.544921</t>
+  </si>
+  <si>
+    <t>53.23161</t>
+  </si>
+  <si>
+    <t>53.40216299999999</t>
+  </si>
+  <si>
+    <t>53.3581028</t>
+  </si>
+  <si>
+    <t>53.329394</t>
+  </si>
+  <si>
+    <t>52.7404409</t>
+  </si>
+  <si>
+    <t>54.881806</t>
+  </si>
+  <si>
+    <t>53.285594</t>
+  </si>
+  <si>
+    <t>51.4420486</t>
+  </si>
+  <si>
+    <t>53.2646464</t>
+  </si>
+  <si>
+    <t>50.493452</t>
+  </si>
+  <si>
+    <t>-0.1122773</t>
+  </si>
+  <si>
+    <t>-0.0819239</t>
+  </si>
+  <si>
+    <t>-5.901249</t>
+  </si>
+  <si>
+    <t>-1.200032</t>
+  </si>
+  <si>
+    <t>-0.9143972</t>
+  </si>
+  <si>
+    <t>-2.306407</t>
+  </si>
+  <si>
+    <t>-1.5655528</t>
+  </si>
+  <si>
+    <t>-2.6914364</t>
+  </si>
+  <si>
+    <t>-3.3627941</t>
+  </si>
+  <si>
+    <t>-3.8375616</t>
+  </si>
+  <si>
+    <t>-1.452231</t>
+  </si>
+  <si>
+    <t>-4.3703994</t>
+  </si>
+  <si>
+    <t>0.075766</t>
+  </si>
+  <si>
+    <t>-1.9137393</t>
+  </si>
+  <si>
+    <t>-3.643118</t>
+  </si>
+  <si>
+    <t>-1.1634522</t>
+  </si>
+  <si>
+    <t>-5.0166449</t>
+  </si>
+  <si>
+    <t>-2.487529</t>
+  </si>
+  <si>
+    <t>-2.57864</t>
+  </si>
+  <si>
+    <t>-0.5921339</t>
+  </si>
+  <si>
+    <t>-1.1371388</t>
+  </si>
+  <si>
+    <t>-3.700212499999999</t>
+  </si>
+  <si>
+    <t>-0.2712464</t>
+  </si>
+  <si>
+    <t>-1.4666744</t>
+  </si>
+  <si>
+    <t>-3.003632</t>
+  </si>
+  <si>
+    <t>-0.2710568</t>
+  </si>
+  <si>
+    <t>0.8869060999999999</t>
+  </si>
+  <si>
+    <t>-3.467681</t>
+  </si>
+  <si>
+    <t>-1.5993003</t>
+  </si>
+  <si>
+    <t>-2.4483651</t>
+  </si>
+  <si>
+    <t>-3.0271669</t>
+  </si>
+  <si>
+    <t>-0.554267</t>
+  </si>
+  <si>
+    <t>-2.765806</t>
+  </si>
+  <si>
+    <t>-2.3851324</t>
+  </si>
+  <si>
+    <t>-3.5775115</t>
+  </si>
+  <si>
+    <t>-3.98949</t>
+  </si>
+  <si>
+    <t>-1.968243</t>
+  </si>
+  <si>
+    <t>-3.5651649</t>
+  </si>
+  <si>
+    <t>-2.253399</t>
+  </si>
+  <si>
+    <t>-2.017505</t>
+  </si>
+  <si>
+    <t>-0.6842332999999999</t>
+  </si>
+  <si>
+    <t>-4.174931</t>
+  </si>
+  <si>
+    <t>-0.7693669999999999</t>
+  </si>
+  <si>
+    <t>-1.2686633</t>
+  </si>
+  <si>
+    <t>0.6012249</t>
+  </si>
+  <si>
+    <t>-3.0329723</t>
+  </si>
+  <si>
+    <t>-1.24484</t>
+  </si>
+  <si>
+    <t>-3.347789</t>
+  </si>
+  <si>
+    <t>-1.963405</t>
+  </si>
+  <si>
+    <t>-1.5158795</t>
+  </si>
+  <si>
+    <t>-3.3809643</t>
+  </si>
+  <si>
+    <t>-2.1740623</t>
+  </si>
+  <si>
+    <t>-2.725534</t>
+  </si>
+  <si>
+    <t>-2.8153039</t>
+  </si>
+  <si>
+    <t>0.0789481</t>
+  </si>
+  <si>
+    <t>-1.94677</t>
+  </si>
+  <si>
+    <t>0.218655</t>
+  </si>
+  <si>
+    <t>-3.120176</t>
+  </si>
+  <si>
+    <t>-2.412157</t>
+  </si>
+  <si>
+    <t>-0.255965</t>
+  </si>
+  <si>
+    <t>-3.097385</t>
+  </si>
+  <si>
+    <t>-5.1106656</t>
+  </si>
+  <si>
+    <t>-0.161466</t>
+  </si>
+  <si>
+    <t>-3.521124</t>
+  </si>
+  <si>
+    <t>0.2647319</t>
+  </si>
+  <si>
+    <t>1.728047</t>
+  </si>
+  <si>
+    <t>-1.67255</t>
+  </si>
+  <si>
+    <t>-0.1127379</t>
+  </si>
+  <si>
+    <t>-0.9232526000000001</t>
+  </si>
+  <si>
+    <t>-2.9694784</t>
+  </si>
+  <si>
+    <t>-2.356242</t>
+  </si>
+  <si>
+    <t>0.4058616</t>
+  </si>
+  <si>
+    <t>-0.138553</t>
+  </si>
+  <si>
+    <t>-1.0098267</t>
+  </si>
+  <si>
+    <t>-2.466722</t>
+  </si>
+  <si>
+    <t>-1.290961</t>
+  </si>
+  <si>
+    <t>-2.7557339</t>
+  </si>
+  <si>
+    <t>-2.7420174</t>
+  </si>
+  <si>
+    <t>-2.682366</t>
+  </si>
+  <si>
+    <t>-0.215913</t>
+  </si>
+  <si>
+    <t>-1.0921197</t>
+  </si>
+  <si>
+    <t>-0.73951</t>
+  </si>
+  <si>
+    <t>-2.163948</t>
+  </si>
+  <si>
+    <t>-3.5522305</t>
+  </si>
+  <si>
+    <t>-1.991327</t>
+  </si>
+  <si>
+    <t>-0.24566</t>
+  </si>
+  <si>
+    <t>-4.0109088</t>
+  </si>
+  <si>
+    <t>-2.998913</t>
+  </si>
+  <si>
+    <t>-1.5200789</t>
+  </si>
+  <si>
+    <t>-3.999461</t>
+  </si>
+  <si>
+    <t>-3.349008</t>
+  </si>
+  <si>
+    <t>-1.739058</t>
+  </si>
+  <si>
+    <t>-1.606527</t>
+  </si>
+  <si>
+    <t>-1.398776</t>
+  </si>
+  <si>
+    <t>-2.68633</t>
+  </si>
+  <si>
+    <t>0.0613984</t>
+  </si>
+  <si>
+    <t>-2.7869499</t>
+  </si>
+  <si>
+    <t>-2.7673359</t>
+  </si>
+  <si>
+    <t>-2.374905</t>
+  </si>
+  <si>
+    <t>-1.4483102</t>
+  </si>
+  <si>
+    <t>0.228374</t>
+  </si>
+  <si>
+    <t>0.5417860999999999</t>
+  </si>
+  <si>
+    <t>-2.6895619</t>
+  </si>
+  <si>
+    <t>-2.835151</t>
+  </si>
+  <si>
+    <t>-2.0407559</t>
+  </si>
+  <si>
+    <t>-0.9215169999999999</t>
+  </si>
+  <si>
+    <t>-2.4489518</t>
+  </si>
+  <si>
+    <t>0.16418</t>
+  </si>
+  <si>
+    <t>0.3804493</t>
+  </si>
+  <si>
+    <t>-1.529101</t>
+  </si>
+  <si>
+    <t>-0.2307695</t>
+  </si>
+  <si>
+    <t>-1.784066</t>
+  </si>
+  <si>
+    <t>-0.3423826</t>
+  </si>
+  <si>
+    <t>-1.170778</t>
+  </si>
+  <si>
+    <t>-0.7775529999999999</t>
+  </si>
+  <si>
+    <t>-3.1775396</t>
+  </si>
+  <si>
+    <t>-2.436695</t>
+  </si>
+  <si>
+    <t>-1.1115916</t>
+  </si>
+  <si>
+    <t>-2.7254151</t>
+  </si>
+  <si>
+    <t>-3.1902042</t>
+  </si>
+  <si>
+    <t>-2.582446</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>-0.07249259999999999</t>
+  </si>
+  <si>
+    <t>-0.024066</t>
+  </si>
+  <si>
+    <t>-1.265032</t>
+  </si>
+  <si>
+    <t>0.0115243</t>
+  </si>
+  <si>
+    <t>-0.2388213</t>
+  </si>
+  <si>
+    <t>-0.592225</t>
+  </si>
+  <si>
+    <t>-2.6067158</t>
+  </si>
+  <si>
+    <t>-2.6701638</t>
+  </si>
+  <si>
+    <t>-3.5044724</t>
+  </si>
+  <si>
+    <t>0.429229</t>
+  </si>
+  <si>
+    <t>-3.0419283</t>
+  </si>
+  <si>
+    <t>-1.6652498</t>
+  </si>
+  <si>
+    <t>-0.428612</t>
+  </si>
+  <si>
+    <t>-2.8752128</t>
+  </si>
+  <si>
+    <t>-0.1537024</t>
+  </si>
+  <si>
+    <t>-0.186296</t>
+  </si>
+  <si>
+    <t>-0.8723799999999999</t>
+  </si>
+  <si>
+    <t>-1.708298</t>
+  </si>
+  <si>
+    <t>-2.4613056</t>
+  </si>
+  <si>
+    <t>0.18895</t>
+  </si>
+  <si>
+    <t>0.02795</t>
+  </si>
+  <si>
+    <t>-2.0986299</t>
+  </si>
+  <si>
+    <t>-1.5281546</t>
+  </si>
+  <si>
+    <t>-1.6207602</t>
+  </si>
+  <si>
+    <t>-1.504474</t>
+  </si>
+  <si>
+    <t>-1.811502</t>
+  </si>
+  <si>
+    <t>-1.265239</t>
+  </si>
+  <si>
+    <t>-0.9486490000000001</t>
+  </si>
+  <si>
+    <t>-0.9824359999999999</t>
+  </si>
+  <si>
+    <t>-2.454042</t>
+  </si>
+  <si>
+    <t>-0.8123301</t>
+  </si>
+  <si>
+    <t>-2.757227</t>
+  </si>
+  <si>
+    <t>0.3893959</t>
+  </si>
+  <si>
+    <t>-2.833422</t>
+  </si>
+  <si>
+    <t>-1.209239</t>
+  </si>
+  <si>
+    <t>-0.6975153</t>
+  </si>
+  <si>
+    <t>-2.5321749</t>
+  </si>
+  <si>
+    <t>-4.085603</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1469,29 +2405,11 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>153</v>
-      </c>
-      <c r="I2">
-        <v>54.108967</v>
-      </c>
-      <c r="J2">
-        <v>-3.218894</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1502,16 +2420,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
         <v>132</v>
@@ -1519,11 +2437,11 @@
       <c r="H3" t="s">
         <v>154</v>
       </c>
-      <c r="I3">
-        <v>51.5672808</v>
-      </c>
-      <c r="J3">
-        <v>-0.2710568</v>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1534,16 +2452,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
         <v>133</v>
@@ -1551,11 +2469,11 @@
       <c r="H4" t="s">
         <v>155</v>
       </c>
-      <c r="I4">
-        <v>57.263332</v>
-      </c>
-      <c r="J4">
-        <v>-2.4483651</v>
+      <c r="I4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J4" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1566,16 +2484,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -1583,11 +2501,11 @@
       <c r="H5" t="s">
         <v>156</v>
       </c>
-      <c r="I5">
-        <v>53.4334046</v>
-      </c>
-      <c r="J5">
-        <v>-2.3851324</v>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1598,16 +2516,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
         <v>135</v>
@@ -1615,11 +2533,11 @@
       <c r="H6" t="s">
         <v>157</v>
       </c>
-      <c r="I6">
-        <v>51.38096299999999</v>
-      </c>
-      <c r="J6">
-        <v>0.218655</v>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1630,16 +2548,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>136</v>
@@ -1647,11 +2565,11 @@
       <c r="H7" t="s">
         <v>158</v>
       </c>
-      <c r="I7">
-        <v>56.876579</v>
-      </c>
-      <c r="J7">
-        <v>-2.412157</v>
+      <c r="I7" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1668,10 +2586,10 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
         <v>137</v>
@@ -1679,11 +2597,11 @@
       <c r="H8" t="s">
         <v>159</v>
       </c>
-      <c r="I8">
-        <v>53.59669299999999</v>
-      </c>
-      <c r="J8">
-        <v>-0.73951</v>
+      <c r="I8" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1694,16 +2612,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
         <v>138</v>
@@ -1711,11 +2629,11 @@
       <c r="H9" t="s">
         <v>160</v>
       </c>
-      <c r="I9">
-        <v>52.7320083</v>
-      </c>
-      <c r="J9">
-        <v>0.3804493</v>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1732,10 +2650,10 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
         <v>139</v>
@@ -1743,11 +2661,11 @@
       <c r="H10" t="s">
         <v>161</v>
       </c>
-      <c r="I10">
-        <v>51.5211024</v>
-      </c>
-      <c r="J10">
-        <v>-0.07249259999999999</v>
+      <c r="I10" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1758,28 +2676,28 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11">
-        <v>57.55730699999999</v>
-      </c>
-      <c r="J11">
-        <v>-1.838958</v>
+        <v>162</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1790,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12">
-        <v>57.1064575</v>
-      </c>
-      <c r="J12">
-        <v>-2.0986299</v>
+        <v>163</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1828,22 +2746,22 @@
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13">
-        <v>54.27534199999999</v>
-      </c>
-      <c r="J13">
-        <v>-1.975145</v>
+        <v>164</v>
+      </c>
+      <c r="I13" t="s">
+        <v>349</v>
+      </c>
+      <c r="J13" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1854,28 +2772,28 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14">
-        <v>54.612828</v>
-      </c>
-      <c r="J14">
-        <v>-5.936</v>
+        <v>165</v>
+      </c>
+      <c r="I14" t="s">
+        <v>349</v>
+      </c>
+      <c r="J14" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1886,28 +2804,28 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
         <v>144</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15">
-        <v>54.108967</v>
-      </c>
-      <c r="J15">
-        <v>-3.218894</v>
+        <v>166</v>
+      </c>
+      <c r="I15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1924,22 +2842,22 @@
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G16" t="s">
         <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I16">
-        <v>51.5672808</v>
-      </c>
-      <c r="J16">
-        <v>-0.2710568</v>
+        <v>167</v>
+      </c>
+      <c r="I16" t="s">
+        <v>351</v>
+      </c>
+      <c r="J16" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1950,28 +2868,28 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
         <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17">
-        <v>57.263332</v>
-      </c>
-      <c r="J17">
-        <v>-2.4483651</v>
+        <v>168</v>
+      </c>
+      <c r="I17" t="s">
+        <v>352</v>
+      </c>
+      <c r="J17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1982,28 +2900,28 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
         <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18">
-        <v>53.4334046</v>
-      </c>
-      <c r="J18">
-        <v>-2.3851324</v>
+        <v>169</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2011,31 +2929,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
         <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19">
-        <v>51.38096299999999</v>
-      </c>
-      <c r="J19">
-        <v>0.218655</v>
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2043,31 +2961,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
         <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20">
-        <v>56.876579</v>
-      </c>
-      <c r="J20">
-        <v>-2.412157</v>
+        <v>171</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2084,22 +3002,22 @@
         <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
         <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21">
-        <v>53.59669299999999</v>
-      </c>
-      <c r="J21">
-        <v>-0.73951</v>
+        <v>171</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2116,22 +3034,22 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
         <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22">
-        <v>52.7320083</v>
-      </c>
-      <c r="J22">
-        <v>0.3804493</v>
+        <v>172</v>
+      </c>
+      <c r="I22" t="s">
+        <v>353</v>
+      </c>
+      <c r="J22" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2148,22 +3066,22 @@
         <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
         <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23">
-        <v>51.5211024</v>
-      </c>
-      <c r="J23">
-        <v>-0.07249259999999999</v>
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>354</v>
+      </c>
+      <c r="J23" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2174,28 +3092,28 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24">
-        <v>57.55730699999999</v>
-      </c>
-      <c r="J24">
-        <v>-1.838958</v>
+        <v>174</v>
+      </c>
+      <c r="I24" t="s">
+        <v>355</v>
+      </c>
+      <c r="J24" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2206,19 +3124,19 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25">
-        <v>57.1064575</v>
-      </c>
-      <c r="J25">
-        <v>-2.0986299</v>
+        <v>175</v>
+      </c>
+      <c r="I25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J25" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2229,19 +3147,19 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26">
-        <v>53.3581028</v>
-      </c>
-      <c r="J26">
-        <v>-0.8123301000000001</v>
+        <v>176</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2258,13 +3176,13 @@
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27">
-        <v>57.149717</v>
-      </c>
-      <c r="J27">
-        <v>-2.094278</v>
+        <v>177</v>
+      </c>
+      <c r="I27" t="s">
+        <v>357</v>
+      </c>
+      <c r="J27" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2281,13 +3199,13 @@
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28">
-        <v>53.8285919</v>
-      </c>
-      <c r="J28">
-        <v>-0.1122773</v>
+        <v>178</v>
+      </c>
+      <c r="I28" t="s">
+        <v>358</v>
+      </c>
+      <c r="J28" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2298,19 +3216,19 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29">
-        <v>52.73254190000001</v>
-      </c>
-      <c r="J29">
-        <v>-1.7498386</v>
+        <v>179</v>
+      </c>
+      <c r="I29" t="s">
+        <v>359</v>
+      </c>
+      <c r="J29" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2321,19 +3239,19 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30">
-        <v>52.73254190000001</v>
-      </c>
-      <c r="J30">
-        <v>-1.7498386</v>
+        <v>180</v>
+      </c>
+      <c r="I30" t="s">
+        <v>360</v>
+      </c>
+      <c r="J30" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2344,19 +3262,19 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31">
-        <v>51.5118676</v>
-      </c>
-      <c r="J31">
-        <v>-0.08192389999999999</v>
+        <v>181</v>
+      </c>
+      <c r="I31" t="s">
+        <v>361</v>
+      </c>
+      <c r="J31" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2367,19 +3285,19 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
-      </c>
-      <c r="I32">
-        <v>54.612828</v>
-      </c>
-      <c r="J32">
-        <v>-5.936</v>
+        <v>182</v>
+      </c>
+      <c r="I32" t="s">
+        <v>362</v>
+      </c>
+      <c r="J32" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2390,19 +3308,19 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33">
-        <v>57.064863</v>
-      </c>
-      <c r="J33">
-        <v>-5.901249</v>
+        <v>183</v>
+      </c>
+      <c r="I33" t="s">
+        <v>363</v>
+      </c>
+      <c r="J33" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2419,13 +3337,13 @@
         <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34">
-        <v>52.97204079999999</v>
-      </c>
-      <c r="J34">
-        <v>-1.200032</v>
+        <v>184</v>
+      </c>
+      <c r="I34" t="s">
+        <v>364</v>
+      </c>
+      <c r="J34" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2442,13 +3360,13 @@
         <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35">
-        <v>53.7444253</v>
-      </c>
-      <c r="J35">
-        <v>-0.9143972</v>
+        <v>185</v>
+      </c>
+      <c r="I35" t="s">
+        <v>365</v>
+      </c>
+      <c r="J35" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2465,13 +3383,13 @@
         <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36">
-        <v>-36.84719990000001</v>
-      </c>
-      <c r="J36">
-        <v>174.7656058</v>
+        <v>186</v>
+      </c>
+      <c r="I36" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2479,22 +3397,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37">
-        <v>-36.84719990000001</v>
-      </c>
-      <c r="J37">
-        <v>174.7656058</v>
+        <v>187</v>
+      </c>
+      <c r="I37" t="s">
+        <v>367</v>
+      </c>
+      <c r="J37" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2502,22 +3420,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>179</v>
-      </c>
-      <c r="I38">
-        <v>53.05489499999999</v>
-      </c>
-      <c r="J38">
-        <v>-2.306407</v>
+        <v>187</v>
+      </c>
+      <c r="I38" t="s">
+        <v>367</v>
+      </c>
+      <c r="J38" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2534,41 +3452,59 @@
         <v>85</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39">
-        <v>53.05489499999999</v>
-      </c>
-      <c r="J39">
-        <v>-2.306407</v>
+        <v>188</v>
+      </c>
+      <c r="I39" t="s">
+        <v>368</v>
+      </c>
+      <c r="J39" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
       <c r="H40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I40">
-        <v>52.65568469999999</v>
-      </c>
-      <c r="J40">
-        <v>-1.5655528</v>
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
       <c r="H41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I41">
-        <v>51.5022576</v>
-      </c>
-      <c r="J41">
-        <v>-2.6914364</v>
+        <v>190</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2576,13 +3512,13 @@
         <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>183</v>
-      </c>
-      <c r="I42">
-        <v>50.71741249999999</v>
-      </c>
-      <c r="J42">
-        <v>-3.3627941</v>
+        <v>191</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J42" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2590,13 +3526,13 @@
         <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
-      </c>
-      <c r="I43">
-        <v>52.8492739</v>
-      </c>
-      <c r="J43">
-        <v>1.4645665</v>
+        <v>192</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2604,13 +3540,13 @@
         <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
-      </c>
-      <c r="I44">
-        <v>52.8492739</v>
-      </c>
-      <c r="J44">
-        <v>1.4645665</v>
+        <v>193</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2618,13 +3554,13 @@
         <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>186</v>
-      </c>
-      <c r="I45">
-        <v>52.8492739</v>
-      </c>
-      <c r="J45">
-        <v>1.4645665</v>
+        <v>194</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2632,13 +3568,13 @@
         <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>186</v>
-      </c>
-      <c r="I46">
-        <v>52.8492739</v>
-      </c>
-      <c r="J46">
-        <v>1.4645665</v>
+        <v>195</v>
+      </c>
+      <c r="I46" t="s">
+        <v>375</v>
+      </c>
+      <c r="J46" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2646,13 +3582,13 @@
         <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47">
-        <v>51.6129389</v>
-      </c>
-      <c r="J47">
-        <v>-3.8375616</v>
+        <v>196</v>
+      </c>
+      <c r="I47" t="s">
+        <v>376</v>
+      </c>
+      <c r="J47" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2660,13 +3596,13 @@
         <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>188</v>
-      </c>
-      <c r="I48">
-        <v>54.205613</v>
-      </c>
-      <c r="J48">
-        <v>-1.452231</v>
+        <v>197</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2674,13 +3610,13 @@
         <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49">
-        <v>56.4783817</v>
-      </c>
-      <c r="J49">
-        <v>-2.9748214</v>
+        <v>198</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2688,13 +3624,13 @@
         <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>190</v>
-      </c>
-      <c r="I50">
-        <v>51.536563</v>
-      </c>
-      <c r="J50">
-        <v>0.075766</v>
+        <v>199</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2702,13 +3638,13 @@
         <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>191</v>
-      </c>
-      <c r="I51">
-        <v>54.108967</v>
-      </c>
-      <c r="J51">
-        <v>-3.218894</v>
+        <v>200</v>
+      </c>
+      <c r="I51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2716,13 +3652,13 @@
         <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>192</v>
-      </c>
-      <c r="I52">
-        <v>52.2925695</v>
-      </c>
-      <c r="J52">
-        <v>-1.9137393</v>
+        <v>201</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2730,13 +3666,13 @@
         <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53">
-        <v>55.9024</v>
-      </c>
-      <c r="J53">
-        <v>-3.643118</v>
+        <v>202</v>
+      </c>
+      <c r="I53" t="s">
+        <v>381</v>
+      </c>
+      <c r="J53" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2744,13 +3680,13 @@
         <v>52</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
-      </c>
-      <c r="I54">
-        <v>52.5707761</v>
-      </c>
-      <c r="J54">
-        <v>-1.1656497</v>
+        <v>203</v>
+      </c>
+      <c r="I54" t="s">
+        <v>382</v>
+      </c>
+      <c r="J54" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2758,13 +3694,13 @@
         <v>53</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
-      </c>
-      <c r="I55">
-        <v>51.714479</v>
-      </c>
-      <c r="J55">
-        <v>-5.0166449</v>
+        <v>204</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2772,13 +3708,13 @@
         <v>54</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
-      </c>
-      <c r="I56">
-        <v>53.748575</v>
-      </c>
-      <c r="J56">
-        <v>-2.487529</v>
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>384</v>
+      </c>
+      <c r="J56" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2786,13 +3722,13 @@
         <v>55</v>
       </c>
       <c r="H57" t="s">
-        <v>197</v>
-      </c>
-      <c r="I57">
-        <v>53.5873599</v>
-      </c>
-      <c r="J57">
-        <v>-2.57864</v>
+        <v>206</v>
+      </c>
+      <c r="I57" t="s">
+        <v>385</v>
+      </c>
+      <c r="J57" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2800,13 +3736,13 @@
         <v>56</v>
       </c>
       <c r="H58" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58">
-        <v>53.43695049999999</v>
-      </c>
-      <c r="J58">
-        <v>-0.5921339</v>
+        <v>207</v>
+      </c>
+      <c r="I58" t="s">
+        <v>386</v>
+      </c>
+      <c r="J58" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2814,13 +3750,13 @@
         <v>57</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
-      </c>
-      <c r="I59">
-        <v>54.5978222</v>
-      </c>
-      <c r="J59">
-        <v>-1.1371388</v>
+        <v>208</v>
+      </c>
+      <c r="I59" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2828,13 +3764,13 @@
         <v>58</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
-      </c>
-      <c r="I60">
-        <v>56.00870889999999</v>
-      </c>
-      <c r="J60">
-        <v>-3.700212499999999</v>
+        <v>209</v>
+      </c>
+      <c r="I60" t="s">
+        <v>388</v>
+      </c>
+      <c r="J60" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2842,13 +3778,13 @@
         <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
-      </c>
-      <c r="I61">
-        <v>53.7339662</v>
-      </c>
-      <c r="J61">
-        <v>-0.2388755</v>
+        <v>210</v>
+      </c>
+      <c r="I61" t="s">
+        <v>389</v>
+      </c>
+      <c r="J61" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2856,13 +3792,13 @@
         <v>60</v>
       </c>
       <c r="H62" t="s">
-        <v>202</v>
-      </c>
-      <c r="I62">
-        <v>51.0243624</v>
-      </c>
-      <c r="J62">
-        <v>-1.4666744</v>
+        <v>211</v>
+      </c>
+      <c r="I62" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2870,13 +3806,13 @@
         <v>61</v>
       </c>
       <c r="H63" t="s">
-        <v>202</v>
-      </c>
-      <c r="I63">
-        <v>51.0243624</v>
-      </c>
-      <c r="J63">
-        <v>-1.4666744</v>
+        <v>212</v>
+      </c>
+      <c r="I63" t="s">
+        <v>391</v>
+      </c>
+      <c r="J63" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2884,13 +3820,13 @@
         <v>62</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
-      </c>
-      <c r="I64">
-        <v>51.127889</v>
-      </c>
-      <c r="J64">
-        <v>-3.003632</v>
+        <v>213</v>
+      </c>
+      <c r="I64" t="s">
+        <v>392</v>
+      </c>
+      <c r="J64" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2898,13 +3834,13 @@
         <v>63</v>
       </c>
       <c r="H65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65">
-        <v>51.5672808</v>
-      </c>
-      <c r="J65">
-        <v>-0.2710568</v>
+        <v>214</v>
+      </c>
+      <c r="I65" t="s">
+        <v>393</v>
+      </c>
+      <c r="J65" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2912,13 +3848,13 @@
         <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>204</v>
-      </c>
-      <c r="I66">
-        <v>53.55184999999999</v>
-      </c>
-      <c r="J66">
-        <v>-0.491887</v>
+        <v>215</v>
+      </c>
+      <c r="I66" t="s">
+        <v>394</v>
+      </c>
+      <c r="J66" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2926,13 +3862,13 @@
         <v>65</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
-      </c>
-      <c r="I67">
-        <v>52.7561736</v>
-      </c>
-      <c r="J67">
-        <v>0.8869060999999999</v>
+        <v>216</v>
+      </c>
+      <c r="I67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2940,13 +3876,13 @@
         <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>206</v>
-      </c>
-      <c r="I68">
-        <v>55.934161</v>
-      </c>
-      <c r="J68">
-        <v>-3.467681</v>
+        <v>217</v>
+      </c>
+      <c r="I68" t="s">
+        <v>395</v>
+      </c>
+      <c r="J68" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2954,13 +3890,13 @@
         <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>207</v>
-      </c>
-      <c r="I69">
-        <v>54.0016112</v>
-      </c>
-      <c r="J69">
-        <v>-1.5993003</v>
+        <v>218</v>
+      </c>
+      <c r="I69" t="s">
+        <v>396</v>
+      </c>
+      <c r="J69" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2968,13 +3904,13 @@
         <v>68</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
-      </c>
-      <c r="I70">
-        <v>57.263332</v>
-      </c>
-      <c r="J70">
-        <v>-2.4483651</v>
+        <v>219</v>
+      </c>
+      <c r="I70" t="s">
+        <v>397</v>
+      </c>
+      <c r="J70" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2982,13 +3918,13 @@
         <v>69</v>
       </c>
       <c r="H71" t="s">
-        <v>209</v>
-      </c>
-      <c r="I71">
-        <v>53.2605042</v>
-      </c>
-      <c r="J71">
-        <v>-3.0271669</v>
+        <v>220</v>
+      </c>
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2996,13 +3932,13 @@
         <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72">
-        <v>52.308135</v>
-      </c>
-      <c r="J72">
-        <v>-0.554267</v>
+        <v>221</v>
+      </c>
+      <c r="I72" t="s">
+        <v>399</v>
+      </c>
+      <c r="J72" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3010,13 +3946,13 @@
         <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>211</v>
-      </c>
-      <c r="I73">
-        <v>56.728917</v>
-      </c>
-      <c r="J73">
-        <v>-2.765806</v>
+        <v>222</v>
+      </c>
+      <c r="I73" t="s">
+        <v>400</v>
+      </c>
+      <c r="J73" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3024,13 +3960,13 @@
         <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>156</v>
-      </c>
-      <c r="I74">
-        <v>53.4334046</v>
-      </c>
-      <c r="J74">
-        <v>-2.3851324</v>
+        <v>222</v>
+      </c>
+      <c r="I74" t="s">
+        <v>400</v>
+      </c>
+      <c r="J74" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3038,13 +3974,13 @@
         <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>212</v>
-      </c>
-      <c r="I75">
-        <v>50.5265808</v>
-      </c>
-      <c r="J75">
-        <v>-3.5775115</v>
+        <v>223</v>
+      </c>
+      <c r="I75" t="s">
+        <v>401</v>
+      </c>
+      <c r="J75" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3052,13 +3988,13 @@
         <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>213</v>
-      </c>
-      <c r="I76">
-        <v>50.37480919999999</v>
-      </c>
-      <c r="J76">
-        <v>-3.98949</v>
+        <v>224</v>
+      </c>
+      <c r="I76" t="s">
+        <v>402</v>
+      </c>
+      <c r="J76" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3066,13 +4002,13 @@
         <v>75</v>
       </c>
       <c r="H77" t="s">
-        <v>214</v>
-      </c>
-      <c r="I77">
-        <v>52.420451</v>
-      </c>
-      <c r="J77">
-        <v>-1.245053</v>
+        <v>225</v>
+      </c>
+      <c r="I77" t="s">
+        <v>403</v>
+      </c>
+      <c r="J77" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3080,13 +4016,13 @@
         <v>76</v>
       </c>
       <c r="H78" t="s">
-        <v>215</v>
-      </c>
-      <c r="I78">
-        <v>51.718495</v>
-      </c>
-      <c r="J78">
-        <v>-1.968243</v>
+        <v>226</v>
+      </c>
+      <c r="I78" t="s">
+        <v>404</v>
+      </c>
+      <c r="J78" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3094,13 +4030,13 @@
         <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>216</v>
-      </c>
-      <c r="I79">
-        <v>50.506085</v>
-      </c>
-      <c r="J79">
-        <v>-3.5651649</v>
+        <v>227</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3108,13 +4044,13 @@
         <v>78</v>
       </c>
       <c r="H80" t="s">
-        <v>217</v>
-      </c>
-      <c r="I80">
-        <v>55.65132000000001</v>
-      </c>
-      <c r="J80">
-        <v>-2.253399</v>
+        <v>227</v>
+      </c>
+      <c r="I80" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3122,13 +4058,13 @@
         <v>79</v>
       </c>
       <c r="H81" t="s">
-        <v>218</v>
-      </c>
-      <c r="I81">
-        <v>54.97404599999999</v>
-      </c>
-      <c r="J81">
-        <v>-2.017505</v>
+        <v>228</v>
+      </c>
+      <c r="I81" t="s">
+        <v>405</v>
+      </c>
+      <c r="J81" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3136,13 +4072,13 @@
         <v>80</v>
       </c>
       <c r="H82" t="s">
-        <v>219</v>
-      </c>
-      <c r="I82">
-        <v>52.49229829999999</v>
-      </c>
-      <c r="J82">
-        <v>-0.6842332999999999</v>
+        <v>229</v>
+      </c>
+      <c r="I82" t="s">
+        <v>406</v>
+      </c>
+      <c r="J82" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3150,13 +4086,13 @@
         <v>81</v>
       </c>
       <c r="H83" t="s">
-        <v>220</v>
-      </c>
-      <c r="I83">
-        <v>50.63261</v>
-      </c>
-      <c r="J83">
-        <v>-4.174931</v>
+        <v>230</v>
+      </c>
+      <c r="I83" t="s">
+        <v>407</v>
+      </c>
+      <c r="J83" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3164,13 +4100,13 @@
         <v>82</v>
       </c>
       <c r="H84" t="s">
-        <v>221</v>
-      </c>
-      <c r="I84">
-        <v>53.31341200000001</v>
-      </c>
-      <c r="J84">
-        <v>-0.7693669999999999</v>
+        <v>231</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3178,13 +4114,13 @@
         <v>83</v>
       </c>
       <c r="H85" t="s">
-        <v>222</v>
-      </c>
-      <c r="I85">
-        <v>54.6089519</v>
-      </c>
-      <c r="J85">
-        <v>-1.2686633</v>
+        <v>232</v>
+      </c>
+      <c r="I85" t="s">
+        <v>408</v>
+      </c>
+      <c r="J85" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3192,13 +4128,13 @@
         <v>84</v>
       </c>
       <c r="H86" t="s">
-        <v>223</v>
-      </c>
-      <c r="I86">
-        <v>51.4253164</v>
-      </c>
-      <c r="J86">
-        <v>0.6012249</v>
+        <v>233</v>
+      </c>
+      <c r="I86" t="s">
+        <v>409</v>
+      </c>
+      <c r="J86" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3206,13 +4142,13 @@
         <v>85</v>
       </c>
       <c r="H87" t="s">
-        <v>224</v>
-      </c>
-      <c r="I87">
-        <v>53.1997351</v>
-      </c>
-      <c r="J87">
-        <v>-3.0329723</v>
+        <v>234</v>
+      </c>
+      <c r="I87" t="s">
+        <v>410</v>
+      </c>
+      <c r="J87" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3220,13 +4156,13 @@
         <v>86</v>
       </c>
       <c r="H88" t="s">
-        <v>225</v>
-      </c>
-      <c r="I88">
-        <v>51.60804400000001</v>
-      </c>
-      <c r="J88">
-        <v>-1.24484</v>
+        <v>235</v>
+      </c>
+      <c r="I88" t="s">
+        <v>411</v>
+      </c>
+      <c r="J88" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3234,13 +4170,13 @@
         <v>87</v>
       </c>
       <c r="H89" t="s">
-        <v>226</v>
-      </c>
-      <c r="I89">
-        <v>51.76181099999999</v>
-      </c>
-      <c r="J89">
-        <v>-3.347789</v>
+        <v>236</v>
+      </c>
+      <c r="I89" t="s">
+        <v>412</v>
+      </c>
+      <c r="J89" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3248,13 +4184,13 @@
         <v>88</v>
       </c>
       <c r="H90" t="s">
-        <v>227</v>
-      </c>
-      <c r="I90">
-        <v>52.839579</v>
-      </c>
-      <c r="J90">
-        <v>-1.963405</v>
+        <v>237</v>
+      </c>
+      <c r="I90" t="s">
+        <v>413</v>
+      </c>
+      <c r="J90" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3262,13 +4198,13 @@
         <v>89</v>
       </c>
       <c r="H91" t="s">
-        <v>228</v>
-      </c>
-      <c r="I91">
-        <v>54.9070394</v>
-      </c>
-      <c r="J91">
-        <v>-1.5158795</v>
+        <v>238</v>
+      </c>
+      <c r="I91" t="s">
+        <v>49</v>
+      </c>
+      <c r="J91" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3276,13 +4212,13 @@
         <v>90</v>
       </c>
       <c r="H92" t="s">
-        <v>229</v>
-      </c>
-      <c r="I92">
-        <v>53.2103663</v>
-      </c>
-      <c r="J92">
-        <v>-3.3809643</v>
+        <v>239</v>
+      </c>
+      <c r="I92" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3290,13 +4226,13 @@
         <v>91</v>
       </c>
       <c r="H93" t="s">
-        <v>230</v>
-      </c>
-      <c r="I93">
-        <v>51.51950799999999</v>
-      </c>
-      <c r="J93">
-        <v>-3.3399109</v>
+        <v>240</v>
+      </c>
+      <c r="I93" t="s">
+        <v>414</v>
+      </c>
+      <c r="J93" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3304,13 +4240,13 @@
         <v>92</v>
       </c>
       <c r="H94" t="s">
-        <v>231</v>
-      </c>
-      <c r="I94">
-        <v>51.58844939999999</v>
-      </c>
-      <c r="J94">
-        <v>-2.1740623</v>
+        <v>241</v>
+      </c>
+      <c r="I94" t="s">
+        <v>415</v>
+      </c>
+      <c r="J94" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3318,13 +4254,13 @@
         <v>93</v>
       </c>
       <c r="H95" t="s">
-        <v>232</v>
-      </c>
-      <c r="I95">
-        <v>53.646615</v>
-      </c>
-      <c r="J95">
-        <v>-2.725534</v>
+        <v>242</v>
+      </c>
+      <c r="I95" t="s">
+        <v>51</v>
+      </c>
+      <c r="J95" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3332,13 +4268,13 @@
         <v>94</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
-      </c>
-      <c r="I96">
-        <v>53.273924</v>
-      </c>
-      <c r="J96">
-        <v>-2.8153039</v>
+        <v>243</v>
+      </c>
+      <c r="I96" t="s">
+        <v>416</v>
+      </c>
+      <c r="J96" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3346,13 +4282,13 @@
         <v>95</v>
       </c>
       <c r="H97" t="s">
-        <v>234</v>
-      </c>
-      <c r="I97">
-        <v>51.7258497</v>
-      </c>
-      <c r="J97">
-        <v>0.07894809999999999</v>
+        <v>244</v>
+      </c>
+      <c r="I97" t="s">
+        <v>417</v>
+      </c>
+      <c r="J97" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3360,13 +4296,13 @@
         <v>96</v>
       </c>
       <c r="H98" t="s">
-        <v>235</v>
-      </c>
-      <c r="I98">
-        <v>52.09214900000001</v>
-      </c>
-      <c r="J98">
-        <v>-1.94677</v>
+        <v>245</v>
+      </c>
+      <c r="I98" t="s">
+        <v>418</v>
+      </c>
+      <c r="J98" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3374,13 +4310,13 @@
         <v>97</v>
       </c>
       <c r="H99" t="s">
-        <v>157</v>
-      </c>
-      <c r="I99">
-        <v>51.38096299999999</v>
-      </c>
-      <c r="J99">
-        <v>0.218655</v>
+        <v>246</v>
+      </c>
+      <c r="I99" t="s">
+        <v>419</v>
+      </c>
+      <c r="J99" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3388,13 +4324,13 @@
         <v>98</v>
       </c>
       <c r="H100" t="s">
-        <v>157</v>
-      </c>
-      <c r="I100">
-        <v>51.38096299999999</v>
-      </c>
-      <c r="J100">
-        <v>0.218655</v>
+        <v>247</v>
+      </c>
+      <c r="I100" t="s">
+        <v>420</v>
+      </c>
+      <c r="J100" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3402,13 +4338,13 @@
         <v>99</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
-      </c>
-      <c r="I101">
-        <v>51.161581</v>
-      </c>
-      <c r="J101">
-        <v>-3.120176</v>
+        <v>248</v>
+      </c>
+      <c r="I101" t="s">
+        <v>421</v>
+      </c>
+      <c r="J101" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3416,13 +4352,13 @@
         <v>100</v>
       </c>
       <c r="H102" t="s">
-        <v>158</v>
-      </c>
-      <c r="I102">
-        <v>56.876579</v>
-      </c>
-      <c r="J102">
-        <v>-2.412157</v>
+        <v>249</v>
+      </c>
+      <c r="I102" t="s">
+        <v>422</v>
+      </c>
+      <c r="J102" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3430,13 +4366,13 @@
         <v>101</v>
       </c>
       <c r="H103" t="s">
-        <v>237</v>
-      </c>
-      <c r="I103">
-        <v>53.793563</v>
-      </c>
-      <c r="J103">
-        <v>-0.255965</v>
+        <v>250</v>
+      </c>
+      <c r="I103" t="s">
+        <v>423</v>
+      </c>
+      <c r="J103" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3444,13 +4380,13 @@
         <v>102</v>
       </c>
       <c r="H104" t="s">
-        <v>238</v>
-      </c>
-      <c r="I104">
-        <v>51.82351</v>
-      </c>
-      <c r="J104">
-        <v>-3.097385</v>
+        <v>251</v>
+      </c>
+      <c r="I104" t="s">
+        <v>424</v>
+      </c>
+      <c r="J104" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3458,13 +4394,13 @@
         <v>103</v>
       </c>
       <c r="H105" t="s">
-        <v>239</v>
-      </c>
-      <c r="I105">
-        <v>55.886356</v>
-      </c>
-      <c r="J105">
-        <v>-3.996026</v>
+        <v>251</v>
+      </c>
+      <c r="I105" t="s">
+        <v>424</v>
+      </c>
+      <c r="J105" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3472,13 +4408,13 @@
         <v>104</v>
       </c>
       <c r="H106" t="s">
-        <v>239</v>
-      </c>
-      <c r="I106">
-        <v>55.886356</v>
-      </c>
-      <c r="J106">
-        <v>-3.996026</v>
+        <v>252</v>
+      </c>
+      <c r="I106" t="s">
+        <v>425</v>
+      </c>
+      <c r="J106" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3486,13 +4422,13 @@
         <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>240</v>
-      </c>
-      <c r="I107">
-        <v>50.26389529999999</v>
-      </c>
-      <c r="J107">
-        <v>-5.1106656</v>
+        <v>252</v>
+      </c>
+      <c r="I107" t="s">
+        <v>425</v>
+      </c>
+      <c r="J107" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3500,13 +4436,13 @@
         <v>106</v>
       </c>
       <c r="H108" t="s">
-        <v>241</v>
-      </c>
-      <c r="I108">
-        <v>52.87059199999999</v>
-      </c>
-      <c r="J108">
-        <v>-0.161466</v>
+        <v>252</v>
+      </c>
+      <c r="I108" t="s">
+        <v>425</v>
+      </c>
+      <c r="J108" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3514,13 +4450,13 @@
         <v>107</v>
       </c>
       <c r="H109" t="s">
-        <v>242</v>
-      </c>
-      <c r="I109">
-        <v>56.085145</v>
-      </c>
-      <c r="J109">
-        <v>-3.521124</v>
+        <v>253</v>
+      </c>
+      <c r="I109" t="s">
+        <v>426</v>
+      </c>
+      <c r="J109" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3528,13 +4464,13 @@
         <v>108</v>
       </c>
       <c r="H110" t="s">
-        <v>243</v>
-      </c>
-      <c r="I110">
-        <v>51.46026269999999</v>
-      </c>
-      <c r="J110">
-        <v>0.7194676</v>
+        <v>254</v>
+      </c>
+      <c r="I110" t="s">
+        <v>427</v>
+      </c>
+      <c r="J110" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3542,13 +4478,13 @@
         <v>109</v>
       </c>
       <c r="H111" t="s">
-        <v>244</v>
-      </c>
-      <c r="I111">
-        <v>52.1920718</v>
-      </c>
-      <c r="J111">
-        <v>0.2647319</v>
+        <v>255</v>
+      </c>
+      <c r="I111" t="s">
+        <v>118</v>
+      </c>
+      <c r="J111" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3556,13 +4492,13 @@
         <v>110</v>
       </c>
       <c r="H112" t="s">
-        <v>245</v>
-      </c>
-      <c r="I112">
-        <v>52.598233</v>
-      </c>
-      <c r="J112">
-        <v>1.728047</v>
+        <v>256</v>
+      </c>
+      <c r="I112" t="s">
+        <v>428</v>
+      </c>
+      <c r="J112" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3570,13 +4506,13 @@
         <v>111</v>
       </c>
       <c r="H113" t="s">
-        <v>246</v>
-      </c>
-      <c r="I113">
-        <v>55.330004</v>
-      </c>
-      <c r="J113">
-        <v>-1.67255</v>
+        <v>257</v>
+      </c>
+      <c r="I113" t="s">
+        <v>429</v>
+      </c>
+      <c r="J113" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3584,13 +4520,13 @@
         <v>112</v>
       </c>
       <c r="H114" t="s">
-        <v>247</v>
-      </c>
-      <c r="I114">
-        <v>51.5159594</v>
-      </c>
-      <c r="J114">
-        <v>-0.1127379</v>
+        <v>258</v>
+      </c>
+      <c r="I114" t="s">
+        <v>430</v>
+      </c>
+      <c r="J114" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3598,13 +4534,13 @@
         <v>113</v>
       </c>
       <c r="H115" t="s">
-        <v>248</v>
-      </c>
-      <c r="I115">
-        <v>53.6363369</v>
-      </c>
-      <c r="J115">
-        <v>-0.9232526000000001</v>
+        <v>259</v>
+      </c>
+      <c r="I115" t="s">
+        <v>431</v>
+      </c>
+      <c r="J115" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3612,13 +4548,13 @@
         <v>114</v>
       </c>
       <c r="H116" t="s">
-        <v>249</v>
-      </c>
-      <c r="I116">
-        <v>54.3517192</v>
-      </c>
-      <c r="J116">
-        <v>-2.9694784</v>
+        <v>260</v>
+      </c>
+      <c r="I116" t="s">
+        <v>432</v>
+      </c>
+      <c r="J116" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3626,13 +4562,13 @@
         <v>115</v>
       </c>
       <c r="H117" t="s">
-        <v>250</v>
-      </c>
-      <c r="I117">
-        <v>54.6182025</v>
-      </c>
-      <c r="J117">
-        <v>-2.8159661</v>
+        <v>261</v>
+      </c>
+      <c r="I117" t="s">
+        <v>433</v>
+      </c>
+      <c r="J117" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3640,13 +4576,13 @@
         <v>116</v>
       </c>
       <c r="H118" t="s">
-        <v>251</v>
-      </c>
-      <c r="I118">
-        <v>51.1648587</v>
-      </c>
-      <c r="J118">
-        <v>-3.2066534</v>
+        <v>262</v>
+      </c>
+      <c r="I118" t="s">
+        <v>434</v>
+      </c>
+      <c r="J118" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3654,13 +4590,13 @@
         <v>117</v>
       </c>
       <c r="H119" t="s">
-        <v>252</v>
-      </c>
-      <c r="I119">
-        <v>53.201306</v>
-      </c>
-      <c r="J119">
-        <v>-2.356242</v>
+        <v>263</v>
+      </c>
+      <c r="I119" t="s">
+        <v>435</v>
+      </c>
+      <c r="J119" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3668,13 +4604,13 @@
         <v>118</v>
       </c>
       <c r="H120" t="s">
-        <v>253</v>
-      </c>
-      <c r="I120">
-        <v>51.5237407</v>
-      </c>
-      <c r="J120">
-        <v>0.4058616</v>
+        <v>264</v>
+      </c>
+      <c r="I120" t="s">
+        <v>436</v>
+      </c>
+      <c r="J120" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3682,13 +4618,13 @@
         <v>119</v>
       </c>
       <c r="H121" t="s">
-        <v>254</v>
-      </c>
-      <c r="I121">
-        <v>53.9104</v>
-      </c>
-      <c r="J121">
-        <v>-0.173953</v>
+        <v>265</v>
+      </c>
+      <c r="I121" t="s">
+        <v>437</v>
+      </c>
+      <c r="J121" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3696,13 +4632,13 @@
         <v>120</v>
       </c>
       <c r="H122" t="s">
-        <v>255</v>
-      </c>
-      <c r="I122">
-        <v>53.793659</v>
-      </c>
-      <c r="J122">
-        <v>-0.138553</v>
+        <v>266</v>
+      </c>
+      <c r="I122" t="s">
+        <v>438</v>
+      </c>
+      <c r="J122" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3710,13 +4646,13 @@
         <v>121</v>
       </c>
       <c r="H123" t="s">
-        <v>256</v>
-      </c>
-      <c r="I123">
-        <v>51.1938105</v>
-      </c>
-      <c r="J123">
-        <v>-1.0098267</v>
+        <v>267</v>
+      </c>
+      <c r="I123" t="s">
+        <v>439</v>
+      </c>
+      <c r="J123" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3724,13 +4660,13 @@
         <v>122</v>
       </c>
       <c r="H124" t="s">
-        <v>257</v>
-      </c>
-      <c r="I124">
-        <v>55.66544099999999</v>
-      </c>
-      <c r="J124">
-        <v>-2.466722</v>
+        <v>268</v>
+      </c>
+      <c r="I124" t="s">
+        <v>440</v>
+      </c>
+      <c r="J124" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3738,13 +4674,13 @@
         <v>123</v>
       </c>
       <c r="H125" t="s">
-        <v>258</v>
-      </c>
-      <c r="I125">
-        <v>54.612537</v>
-      </c>
-      <c r="J125">
-        <v>-1.290961</v>
+        <v>269</v>
+      </c>
+      <c r="I125" t="s">
+        <v>441</v>
+      </c>
+      <c r="J125" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -3752,13 +4688,13 @@
         <v>124</v>
       </c>
       <c r="H126" t="s">
-        <v>259</v>
-      </c>
-      <c r="I126">
-        <v>53.32502419999999</v>
-      </c>
-      <c r="J126">
-        <v>-2.7557339</v>
+        <v>270</v>
+      </c>
+      <c r="I126" t="s">
+        <v>442</v>
+      </c>
+      <c r="J126" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3766,13 +4702,13 @@
         <v>125</v>
       </c>
       <c r="H127" t="s">
-        <v>260</v>
-      </c>
-      <c r="I127">
-        <v>52.7034175</v>
-      </c>
-      <c r="J127">
-        <v>-2.7420174</v>
+        <v>271</v>
+      </c>
+      <c r="I127" t="s">
+        <v>443</v>
+      </c>
+      <c r="J127" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -3780,13 +4716,13 @@
         <v>126</v>
       </c>
       <c r="H128" t="s">
-        <v>261</v>
-      </c>
-      <c r="I128">
-        <v>51.004774</v>
-      </c>
-      <c r="J128">
-        <v>-2.682366</v>
+        <v>272</v>
+      </c>
+      <c r="I128" t="s">
+        <v>444</v>
+      </c>
+      <c r="J128" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3794,13 +4730,13 @@
         <v>127</v>
       </c>
       <c r="H129" t="s">
-        <v>262</v>
-      </c>
-      <c r="I129">
-        <v>53.614012</v>
-      </c>
-      <c r="J129">
-        <v>-0.215913</v>
+        <v>273</v>
+      </c>
+      <c r="I129" t="s">
+        <v>445</v>
+      </c>
+      <c r="J129" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3808,13 +4744,13 @@
         <v>128</v>
       </c>
       <c r="H130" t="s">
-        <v>263</v>
-      </c>
-      <c r="I130">
-        <v>51.5616704</v>
-      </c>
-      <c r="J130">
-        <v>-1.0921197</v>
+        <v>274</v>
+      </c>
+      <c r="I130" t="s">
+        <v>446</v>
+      </c>
+      <c r="J130" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3822,13 +4758,13 @@
         <v>129</v>
       </c>
       <c r="H131" t="s">
-        <v>263</v>
-      </c>
-      <c r="I131">
-        <v>51.5616704</v>
-      </c>
-      <c r="J131">
-        <v>-1.0921197</v>
+        <v>275</v>
+      </c>
+      <c r="I131" t="s">
+        <v>447</v>
+      </c>
+      <c r="J131" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3836,13 +4772,13 @@
         <v>130</v>
       </c>
       <c r="H132" t="s">
-        <v>166</v>
-      </c>
-      <c r="I132">
-        <v>53.59669299999999</v>
-      </c>
-      <c r="J132">
-        <v>-0.73951</v>
+        <v>276</v>
+      </c>
+      <c r="I132" t="s">
+        <v>448</v>
+      </c>
+      <c r="J132" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3850,13 +4786,13 @@
         <v>131</v>
       </c>
       <c r="H133" t="s">
-        <v>166</v>
-      </c>
-      <c r="I133">
-        <v>53.59669299999999</v>
-      </c>
-      <c r="J133">
-        <v>-0.73951</v>
+        <v>277</v>
+      </c>
+      <c r="I133" t="s">
+        <v>449</v>
+      </c>
+      <c r="J133" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3864,13 +4800,13 @@
         <v>132</v>
       </c>
       <c r="H134" t="s">
-        <v>166</v>
-      </c>
-      <c r="I134">
-        <v>53.59669299999999</v>
-      </c>
-      <c r="J134">
-        <v>-0.73951</v>
+        <v>278</v>
+      </c>
+      <c r="I134" t="s">
+        <v>131</v>
+      </c>
+      <c r="J134" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3878,13 +4814,13 @@
         <v>133</v>
       </c>
       <c r="H135" t="s">
-        <v>264</v>
-      </c>
-      <c r="I135">
-        <v>54.40384</v>
-      </c>
-      <c r="J135">
-        <v>-2.163948</v>
+        <v>279</v>
+      </c>
+      <c r="I135" t="s">
+        <v>450</v>
+      </c>
+      <c r="J135" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3892,13 +4828,13 @@
         <v>134</v>
       </c>
       <c r="H136" t="s">
-        <v>265</v>
-      </c>
-      <c r="I136">
-        <v>50.65650309999999</v>
-      </c>
-      <c r="J136">
-        <v>-3.5522305</v>
+        <v>280</v>
+      </c>
+      <c r="I136" t="s">
+        <v>451</v>
+      </c>
+      <c r="J136" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3906,13 +4842,13 @@
         <v>135</v>
       </c>
       <c r="H137" t="s">
-        <v>266</v>
-      </c>
-      <c r="I137">
-        <v>52.7516798</v>
-      </c>
-      <c r="J137">
-        <v>0.4022963000000001</v>
+        <v>281</v>
+      </c>
+      <c r="I137" t="s">
+        <v>452</v>
+      </c>
+      <c r="J137" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3920,13 +4856,13 @@
         <v>136</v>
       </c>
       <c r="H138" t="s">
-        <v>267</v>
-      </c>
-      <c r="I138">
-        <v>57.46348500000001</v>
-      </c>
-      <c r="J138">
-        <v>-1.991327</v>
+        <v>282</v>
+      </c>
+      <c r="I138" t="s">
+        <v>453</v>
+      </c>
+      <c r="J138" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3934,13 +4870,13 @@
         <v>137</v>
       </c>
       <c r="H139" t="s">
-        <v>268</v>
-      </c>
-      <c r="I139">
-        <v>53.14275199999999</v>
-      </c>
-      <c r="J139">
-        <v>-0.24566</v>
+        <v>283</v>
+      </c>
+      <c r="I139" t="s">
+        <v>55</v>
+      </c>
+      <c r="J139" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3948,13 +4884,13 @@
         <v>138</v>
       </c>
       <c r="H140" t="s">
-        <v>269</v>
-      </c>
-      <c r="I140">
-        <v>50.3883105</v>
-      </c>
-      <c r="J140">
-        <v>-4.0109088</v>
+        <v>284</v>
+      </c>
+      <c r="I140" t="s">
+        <v>55</v>
+      </c>
+      <c r="J140" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3962,13 +4898,13 @@
         <v>139</v>
       </c>
       <c r="H141" t="s">
-        <v>270</v>
-      </c>
-      <c r="I141">
-        <v>55.153062</v>
-      </c>
-      <c r="J141">
-        <v>-2.998913</v>
+        <v>285</v>
+      </c>
+      <c r="I141" t="s">
+        <v>454</v>
+      </c>
+      <c r="J141" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3976,13 +4912,13 @@
         <v>140</v>
       </c>
       <c r="H142" t="s">
-        <v>271</v>
-      </c>
-      <c r="I142">
-        <v>52.2851905</v>
-      </c>
-      <c r="J142">
-        <v>-1.5200789</v>
+        <v>286</v>
+      </c>
+      <c r="I142" t="s">
+        <v>119</v>
+      </c>
+      <c r="J142" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3990,13 +4926,13 @@
         <v>141</v>
       </c>
       <c r="H143" t="s">
-        <v>272</v>
-      </c>
-      <c r="I143">
-        <v>50.77721349999999</v>
-      </c>
-      <c r="J143">
-        <v>-3.999461</v>
+        <v>286</v>
+      </c>
+      <c r="I143" t="s">
+        <v>119</v>
+      </c>
+      <c r="J143" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -4004,13 +4940,13 @@
         <v>142</v>
       </c>
       <c r="H144" t="s">
-        <v>273</v>
-      </c>
-      <c r="I144">
-        <v>55.12224500000001</v>
-      </c>
-      <c r="J144">
-        <v>-3.349008</v>
+        <v>287</v>
+      </c>
+      <c r="I144" t="s">
+        <v>455</v>
+      </c>
+      <c r="J144" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -4018,13 +4954,13 @@
         <v>143</v>
       </c>
       <c r="H145" t="s">
-        <v>274</v>
-      </c>
-      <c r="I145">
-        <v>52.123593</v>
-      </c>
-      <c r="J145">
-        <v>-1.739058</v>
+        <v>288</v>
+      </c>
+      <c r="I145" t="s">
+        <v>456</v>
+      </c>
+      <c r="J145" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -4032,13 +4968,13 @@
         <v>144</v>
       </c>
       <c r="H146" t="s">
-        <v>275</v>
-      </c>
-      <c r="I146">
-        <v>52.242056</v>
-      </c>
-      <c r="J146">
-        <v>-1.606527</v>
+        <v>288</v>
+      </c>
+      <c r="I146" t="s">
+        <v>456</v>
+      </c>
+      <c r="J146" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -4046,13 +4982,13 @@
         <v>145</v>
       </c>
       <c r="H147" t="s">
-        <v>276</v>
-      </c>
-      <c r="I147">
-        <v>54.8568337</v>
-      </c>
-      <c r="J147">
-        <v>-1.398776</v>
+        <v>289</v>
+      </c>
+      <c r="I147" t="s">
+        <v>457</v>
+      </c>
+      <c r="J147" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -4060,13 +4996,13 @@
         <v>146</v>
       </c>
       <c r="H148" t="s">
-        <v>277</v>
-      </c>
-      <c r="I148">
-        <v>54.225241</v>
-      </c>
-      <c r="J148">
-        <v>-2.68633</v>
+        <v>290</v>
+      </c>
+      <c r="I148" t="s">
+        <v>458</v>
+      </c>
+      <c r="J148" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -4074,13 +5010,13 @@
         <v>147</v>
       </c>
       <c r="H149" t="s">
-        <v>278</v>
-      </c>
-      <c r="I149">
-        <v>51.131417</v>
-      </c>
-      <c r="J149">
-        <v>-3.467666</v>
+        <v>291</v>
+      </c>
+      <c r="I149" t="s">
+        <v>459</v>
+      </c>
+      <c r="J149" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -4088,13 +5024,13 @@
         <v>148</v>
       </c>
       <c r="H150" t="s">
-        <v>279</v>
-      </c>
-      <c r="I150">
-        <v>52.9274434</v>
-      </c>
-      <c r="J150">
-        <v>-2.7869499</v>
+        <v>292</v>
+      </c>
+      <c r="I150" t="s">
+        <v>460</v>
+      </c>
+      <c r="J150" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -4102,13 +5038,13 @@
         <v>149</v>
       </c>
       <c r="H151" t="s">
-        <v>280</v>
-      </c>
-      <c r="I151">
-        <v>53.019049</v>
-      </c>
-      <c r="J151">
-        <v>-2.7673359</v>
+        <v>293</v>
+      </c>
+      <c r="I151" t="s">
+        <v>461</v>
+      </c>
+      <c r="J151" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -4116,13 +5052,13 @@
         <v>150</v>
       </c>
       <c r="H152" t="s">
-        <v>281</v>
-      </c>
-      <c r="I152">
-        <v>50.853807</v>
-      </c>
-      <c r="J152">
-        <v>-2.374905</v>
+        <v>294</v>
+      </c>
+      <c r="I152" t="s">
+        <v>462</v>
+      </c>
+      <c r="J152" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -4130,13 +5066,13 @@
         <v>151</v>
       </c>
       <c r="H153" t="s">
-        <v>282</v>
-      </c>
-      <c r="I153">
-        <v>50.8918843</v>
-      </c>
-      <c r="J153">
-        <v>-1.4483102</v>
+        <v>295</v>
+      </c>
+      <c r="I153" t="s">
+        <v>463</v>
+      </c>
+      <c r="J153" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -4144,13 +5080,13 @@
         <v>152</v>
       </c>
       <c r="H154" t="s">
-        <v>283</v>
-      </c>
-      <c r="I154">
-        <v>51.7772499</v>
-      </c>
-      <c r="J154">
-        <v>0.228374</v>
+        <v>296</v>
+      </c>
+      <c r="I154" t="s">
+        <v>464</v>
+      </c>
+      <c r="J154" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -4158,13 +5094,13 @@
         <v>153</v>
       </c>
       <c r="H155" t="s">
-        <v>284</v>
-      </c>
-      <c r="I155">
-        <v>51.4047432</v>
-      </c>
-      <c r="J155">
-        <v>0.5417860999999999</v>
+        <v>297</v>
+      </c>
+      <c r="I155" t="s">
+        <v>464</v>
+      </c>
+      <c r="J155" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -4172,13 +5108,13 @@
         <v>154</v>
       </c>
       <c r="H156" t="s">
-        <v>285</v>
-      </c>
-      <c r="I156">
-        <v>54.6199679</v>
-      </c>
-      <c r="J156">
-        <v>-2.6895619</v>
+        <v>298</v>
+      </c>
+      <c r="I156" t="s">
+        <v>465</v>
+      </c>
+      <c r="J156" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -4186,13 +5122,13 @@
         <v>155</v>
       </c>
       <c r="H157" t="s">
-        <v>286</v>
-      </c>
-      <c r="I157">
-        <v>53.219016</v>
-      </c>
-      <c r="J157">
-        <v>-2.835151</v>
+        <v>299</v>
+      </c>
+      <c r="I157" t="s">
+        <v>466</v>
+      </c>
+      <c r="J157" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -4200,13 +5136,13 @@
         <v>156</v>
       </c>
       <c r="H158" t="s">
-        <v>287</v>
-      </c>
-      <c r="I158">
-        <v>52.8876511</v>
-      </c>
-      <c r="J158">
-        <v>-2.0407559</v>
+        <v>299</v>
+      </c>
+      <c r="I158" t="s">
+        <v>466</v>
+      </c>
+      <c r="J158" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -4214,13 +5150,13 @@
         <v>157</v>
       </c>
       <c r="H159" t="s">
-        <v>288</v>
-      </c>
-      <c r="I159">
-        <v>52.475769</v>
-      </c>
-      <c r="J159">
-        <v>-0.9215169999999999</v>
+        <v>300</v>
+      </c>
+      <c r="I159" t="s">
+        <v>467</v>
+      </c>
+      <c r="J159" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -4228,13 +5164,13 @@
         <v>158</v>
       </c>
       <c r="H160" t="s">
-        <v>289</v>
-      </c>
-      <c r="I160">
-        <v>55.33520799999999</v>
-      </c>
-      <c r="J160">
-        <v>-3.440337</v>
+        <v>301</v>
+      </c>
+      <c r="I160" t="s">
+        <v>468</v>
+      </c>
+      <c r="J160" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -4242,13 +5178,13 @@
         <v>159</v>
       </c>
       <c r="H161" t="s">
-        <v>290</v>
-      </c>
-      <c r="I161">
-        <v>51.158193</v>
-      </c>
-      <c r="J161">
-        <v>-1.5624994</v>
+        <v>302</v>
+      </c>
+      <c r="I161" t="s">
+        <v>469</v>
+      </c>
+      <c r="J161" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -4256,13 +5192,13 @@
         <v>160</v>
       </c>
       <c r="H162" t="s">
-        <v>291</v>
-      </c>
-      <c r="I162">
-        <v>52.1808215</v>
-      </c>
-      <c r="J162">
-        <v>0.16418</v>
+        <v>303</v>
+      </c>
+      <c r="I162" t="s">
+        <v>470</v>
+      </c>
+      <c r="J162" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -4270,13 +5206,13 @@
         <v>161</v>
       </c>
       <c r="H163" t="s">
-        <v>160</v>
-      </c>
-      <c r="I163">
-        <v>52.7320083</v>
-      </c>
-      <c r="J163">
-        <v>0.3804493</v>
+        <v>304</v>
+      </c>
+      <c r="I163" t="s">
+        <v>471</v>
+      </c>
+      <c r="J163" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -4284,13 +5220,13 @@
         <v>162</v>
       </c>
       <c r="H164" t="s">
-        <v>292</v>
-      </c>
-      <c r="I164">
-        <v>53.956844</v>
-      </c>
-      <c r="J164">
-        <v>-1.529101</v>
+        <v>305</v>
+      </c>
+      <c r="I164" t="s">
+        <v>471</v>
+      </c>
+      <c r="J164" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -4298,13 +5234,13 @@
         <v>163</v>
       </c>
       <c r="H165" t="s">
-        <v>293</v>
-      </c>
-      <c r="I165">
-        <v>53.418359</v>
-      </c>
-      <c r="J165">
-        <v>-2.4280849</v>
+        <v>306</v>
+      </c>
+      <c r="I165" t="s">
+        <v>472</v>
+      </c>
+      <c r="J165" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -4312,13 +5248,13 @@
         <v>164</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
-      </c>
-      <c r="I166">
-        <v>53.418359</v>
-      </c>
-      <c r="J166">
-        <v>-2.4280849</v>
+        <v>307</v>
+      </c>
+      <c r="I166" t="s">
+        <v>473</v>
+      </c>
+      <c r="J166" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -4326,13 +5262,13 @@
         <v>165</v>
       </c>
       <c r="H167" t="s">
-        <v>295</v>
-      </c>
-      <c r="I167">
-        <v>53.7190697</v>
-      </c>
-      <c r="J167">
-        <v>-0.2307695</v>
+        <v>308</v>
+      </c>
+      <c r="I167" t="s">
+        <v>473</v>
+      </c>
+      <c r="J167" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -4340,13 +5276,13 @@
         <v>166</v>
       </c>
       <c r="H168" t="s">
-        <v>296</v>
-      </c>
-      <c r="I168">
-        <v>52.56949849999999</v>
-      </c>
-      <c r="J168">
-        <v>-0.2405299</v>
+        <v>309</v>
+      </c>
+      <c r="I168" t="s">
+        <v>473</v>
+      </c>
+      <c r="J168" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -4354,13 +5290,13 @@
         <v>167</v>
       </c>
       <c r="H169" t="s">
-        <v>296</v>
-      </c>
-      <c r="I169">
-        <v>52.56949849999999</v>
-      </c>
-      <c r="J169">
-        <v>-0.2405299</v>
+        <v>310</v>
+      </c>
+      <c r="I169" t="s">
+        <v>474</v>
+      </c>
+      <c r="J169" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -4368,13 +5304,13 @@
         <v>168</v>
       </c>
       <c r="H170" t="s">
-        <v>297</v>
-      </c>
-      <c r="I170">
-        <v>57.50812299999999</v>
-      </c>
-      <c r="J170">
-        <v>-1.784066</v>
+        <v>110</v>
+      </c>
+      <c r="I170" t="s">
+        <v>56</v>
+      </c>
+      <c r="J170" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -4382,13 +5318,13 @@
         <v>169</v>
       </c>
       <c r="H171" t="s">
-        <v>298</v>
-      </c>
-      <c r="I171">
-        <v>51.8580018</v>
-      </c>
-      <c r="J171">
-        <v>-0.3423826</v>
+        <v>311</v>
+      </c>
+      <c r="I171" t="s">
+        <v>475</v>
+      </c>
+      <c r="J171" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -4396,13 +5332,13 @@
         <v>170</v>
       </c>
       <c r="H172" t="s">
-        <v>298</v>
-      </c>
-      <c r="I172">
-        <v>51.8580018</v>
-      </c>
-      <c r="J172">
-        <v>-0.3423826</v>
+        <v>312</v>
+      </c>
+      <c r="I172" t="s">
+        <v>476</v>
+      </c>
+      <c r="J172" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -4410,13 +5346,13 @@
         <v>171</v>
       </c>
       <c r="H173" t="s">
-        <v>299</v>
-      </c>
-      <c r="I173">
-        <v>54.61630299999999</v>
-      </c>
-      <c r="J173">
-        <v>-1.170778</v>
+        <v>313</v>
+      </c>
+      <c r="I173" t="s">
+        <v>477</v>
+      </c>
+      <c r="J173" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -4424,13 +5360,13 @@
         <v>172</v>
       </c>
       <c r="H174" t="s">
-        <v>300</v>
-      </c>
-      <c r="I174">
-        <v>54.243925</v>
-      </c>
-      <c r="J174">
-        <v>-0.7775529999999999</v>
+        <v>314</v>
+      </c>
+      <c r="I174" t="s">
+        <v>478</v>
+      </c>
+      <c r="J174" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -4438,13 +5374,13 @@
         <v>173</v>
       </c>
       <c r="H175" t="s">
-        <v>301</v>
-      </c>
-      <c r="I175">
-        <v>-24.3767537</v>
-      </c>
-      <c r="J175">
-        <v>-128.3242376</v>
+        <v>315</v>
+      </c>
+      <c r="I175" t="s">
+        <v>479</v>
+      </c>
+      <c r="J175" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -4452,13 +5388,13 @@
         <v>174</v>
       </c>
       <c r="H176" t="s">
-        <v>302</v>
-      </c>
-      <c r="I176">
-        <v>51.48664600000001</v>
-      </c>
-      <c r="J176">
-        <v>-2.436695</v>
+        <v>316</v>
+      </c>
+      <c r="I176" t="s">
+        <v>480</v>
+      </c>
+      <c r="J176" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -4466,13 +5402,13 @@
         <v>175</v>
       </c>
       <c r="H177" t="s">
-        <v>303</v>
-      </c>
-      <c r="I177">
-        <v>53.9843868</v>
-      </c>
-      <c r="J177">
-        <v>-1.1115916</v>
+        <v>317</v>
+      </c>
+      <c r="I177" t="s">
+        <v>481</v>
+      </c>
+      <c r="J177" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -4480,13 +5416,13 @@
         <v>176</v>
       </c>
       <c r="H178" t="s">
-        <v>304</v>
-      </c>
-      <c r="I178">
-        <v>53.3154401</v>
-      </c>
-      <c r="J178">
-        <v>-2.7254151</v>
+        <v>317</v>
+      </c>
+      <c r="I178" t="s">
+        <v>481</v>
+      </c>
+      <c r="J178" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -4494,13 +5430,13 @@
         <v>177</v>
       </c>
       <c r="H179" t="s">
-        <v>305</v>
-      </c>
-      <c r="I179">
-        <v>54.1156021</v>
-      </c>
-      <c r="J179">
-        <v>-3.1902042</v>
+        <v>318</v>
+      </c>
+      <c r="I179" t="s">
+        <v>482</v>
+      </c>
+      <c r="J179" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -4508,13 +5444,13 @@
         <v>178</v>
       </c>
       <c r="H180" t="s">
-        <v>306</v>
-      </c>
-      <c r="I180">
-        <v>51.91445</v>
-      </c>
-      <c r="J180">
-        <v>-2.582446</v>
+        <v>319</v>
+      </c>
+      <c r="I180" t="s">
+        <v>56</v>
+      </c>
+      <c r="J180" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -4522,13 +5458,13 @@
         <v>179</v>
       </c>
       <c r="H181" t="s">
-        <v>307</v>
-      </c>
-      <c r="I181">
-        <v>51.91445</v>
-      </c>
-      <c r="J181">
-        <v>-2.582446</v>
+        <v>320</v>
+      </c>
+      <c r="I181" t="s">
+        <v>483</v>
+      </c>
+      <c r="J181" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -4536,13 +5472,13 @@
         <v>180</v>
       </c>
       <c r="H182" t="s">
-        <v>308</v>
-      </c>
-      <c r="I182">
-        <v>52.45</v>
-      </c>
-      <c r="J182">
-        <v>0.85</v>
+        <v>321</v>
+      </c>
+      <c r="I182" t="s">
+        <v>484</v>
+      </c>
+      <c r="J182" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -4550,13 +5486,13 @@
         <v>181</v>
       </c>
       <c r="H183" t="s">
-        <v>161</v>
-      </c>
-      <c r="I183">
-        <v>51.5211024</v>
-      </c>
-      <c r="J183">
-        <v>-0.07249259999999999</v>
+        <v>322</v>
+      </c>
+      <c r="I183" t="s">
+        <v>485</v>
+      </c>
+      <c r="J183" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -4564,13 +5500,13 @@
         <v>182</v>
       </c>
       <c r="H184" t="s">
-        <v>161</v>
-      </c>
-      <c r="I184">
-        <v>51.5211024</v>
-      </c>
-      <c r="J184">
-        <v>-0.07249259999999999</v>
+        <v>323</v>
+      </c>
+      <c r="I184" t="s">
+        <v>485</v>
+      </c>
+      <c r="J184" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -4578,13 +5514,13 @@
         <v>183</v>
       </c>
       <c r="H185" t="s">
-        <v>309</v>
-      </c>
-      <c r="I185">
-        <v>52.048142</v>
-      </c>
-      <c r="J185">
-        <v>-0.024066</v>
+        <v>324</v>
+      </c>
+      <c r="I185" t="s">
+        <v>486</v>
+      </c>
+      <c r="J185" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -4592,13 +5528,13 @@
         <v>184</v>
       </c>
       <c r="H186" t="s">
-        <v>310</v>
-      </c>
-      <c r="I186">
-        <v>52.370878</v>
-      </c>
-      <c r="J186">
-        <v>-1.265032</v>
+        <v>325</v>
+      </c>
+      <c r="I186" t="s">
+        <v>487</v>
+      </c>
+      <c r="J186" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -4606,13 +5542,13 @@
         <v>185</v>
       </c>
       <c r="H187" t="s">
-        <v>311</v>
-      </c>
-      <c r="I187">
-        <v>51.7675123</v>
-      </c>
-      <c r="J187">
-        <v>0.0115243</v>
+        <v>326</v>
+      </c>
+      <c r="I187" t="s">
+        <v>488</v>
+      </c>
+      <c r="J187" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -4620,13 +5556,13 @@
         <v>186</v>
       </c>
       <c r="H188" t="s">
-        <v>312</v>
-      </c>
-      <c r="I188">
-        <v>53.7465342</v>
-      </c>
-      <c r="J188">
-        <v>-0.2388213</v>
+        <v>327</v>
+      </c>
+      <c r="I188" t="s">
+        <v>489</v>
+      </c>
+      <c r="J188" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -4634,13 +5570,13 @@
         <v>187</v>
       </c>
       <c r="H189" t="s">
-        <v>313</v>
-      </c>
-      <c r="I189">
-        <v>54.481737</v>
-      </c>
-      <c r="J189">
-        <v>-0.592225</v>
+        <v>328</v>
+      </c>
+      <c r="I189" t="s">
+        <v>490</v>
+      </c>
+      <c r="J189" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -4648,13 +5584,13 @@
         <v>188</v>
       </c>
       <c r="H190" t="s">
-        <v>314</v>
-      </c>
-      <c r="I190">
-        <v>54.481737</v>
-      </c>
-      <c r="J190">
-        <v>-0.592225</v>
+        <v>329</v>
+      </c>
+      <c r="I190" t="s">
+        <v>491</v>
+      </c>
+      <c r="J190" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -4662,13 +5598,13 @@
         <v>189</v>
       </c>
       <c r="H191" t="s">
-        <v>315</v>
-      </c>
-      <c r="I191">
-        <v>53.7643642</v>
-      </c>
-      <c r="J191">
-        <v>-2.6067158</v>
+        <v>330</v>
+      </c>
+      <c r="I191" t="s">
+        <v>492</v>
+      </c>
+      <c r="J191" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -4676,13 +5612,13 @@
         <v>190</v>
       </c>
       <c r="H192" t="s">
-        <v>316</v>
-      </c>
-      <c r="I192">
-        <v>56.5183938</v>
-      </c>
-      <c r="J192">
-        <v>-5.4044231</v>
+        <v>331</v>
+      </c>
+      <c r="I192" t="s">
+        <v>493</v>
+      </c>
+      <c r="J192" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -4690,13 +5626,13 @@
         <v>191</v>
       </c>
       <c r="H193" t="s">
-        <v>317</v>
-      </c>
-      <c r="I193">
-        <v>51.5393248</v>
-      </c>
-      <c r="J193">
-        <v>-2.6701638</v>
+        <v>332</v>
+      </c>
+      <c r="I193" t="s">
+        <v>494</v>
+      </c>
+      <c r="J193" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -4704,13 +5640,13 @@
         <v>192</v>
       </c>
       <c r="H194" t="s">
-        <v>318</v>
-      </c>
-      <c r="I194">
-        <v>51.5393248</v>
-      </c>
-      <c r="J194">
-        <v>-2.6701638</v>
+        <v>333</v>
+      </c>
+      <c r="I194" t="s">
+        <v>495</v>
+      </c>
+      <c r="J194" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -4718,13 +5654,13 @@
         <v>193</v>
       </c>
       <c r="H195" t="s">
-        <v>319</v>
-      </c>
-      <c r="I195">
-        <v>54.4250625</v>
-      </c>
-      <c r="J195">
-        <v>-3.5044724</v>
+        <v>334</v>
+      </c>
+      <c r="I195" t="s">
+        <v>496</v>
+      </c>
+      <c r="J195" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -4732,13 +5668,13 @@
         <v>194</v>
       </c>
       <c r="H196" t="s">
-        <v>108</v>
-      </c>
-      <c r="I196">
-        <v>57.55730699999999</v>
-      </c>
-      <c r="J196">
-        <v>-1.838958</v>
+        <v>335</v>
+      </c>
+      <c r="I196" t="s">
+        <v>497</v>
+      </c>
+      <c r="J196" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -4746,13 +5682,13 @@
         <v>195</v>
       </c>
       <c r="H197" t="s">
-        <v>320</v>
-      </c>
-      <c r="I197">
-        <v>51.4129829</v>
-      </c>
-      <c r="J197">
-        <v>0.429229</v>
+        <v>336</v>
+      </c>
+      <c r="I197" t="s">
+        <v>498</v>
+      </c>
+      <c r="J197" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -4760,13 +5696,13 @@
         <v>196</v>
       </c>
       <c r="H198" t="s">
-        <v>321</v>
-      </c>
-      <c r="I198">
-        <v>53.2358973</v>
-      </c>
-      <c r="J198">
-        <v>-3.0419283</v>
+        <v>337</v>
+      </c>
+      <c r="I198" t="s">
+        <v>499</v>
+      </c>
+      <c r="J198" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -4774,13 +5710,13 @@
         <v>197</v>
       </c>
       <c r="H199" t="s">
-        <v>322</v>
-      </c>
-      <c r="I199">
-        <v>52.5148844</v>
-      </c>
-      <c r="J199">
-        <v>-1.6652498</v>
+        <v>338</v>
+      </c>
+      <c r="I199" t="s">
+        <v>500</v>
+      </c>
+      <c r="J199" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -4788,13 +5724,13 @@
         <v>198</v>
       </c>
       <c r="H200" t="s">
-        <v>323</v>
-      </c>
-      <c r="I200">
-        <v>52.97282999999999</v>
-      </c>
-      <c r="J200">
-        <v>-0.428612</v>
+        <v>339</v>
+      </c>
+      <c r="I200" t="s">
+        <v>501</v>
+      </c>
+      <c r="J200" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -4802,13 +5738,13 @@
         <v>199</v>
       </c>
       <c r="H201" t="s">
-        <v>324</v>
-      </c>
-      <c r="I201">
-        <v>55.81585029999999</v>
-      </c>
-      <c r="J201">
-        <v>-2.8752128</v>
+        <v>340</v>
+      </c>
+      <c r="I201" t="s">
+        <v>501</v>
+      </c>
+      <c r="J201" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -4816,13 +5752,13 @@
         <v>200</v>
       </c>
       <c r="H202" t="s">
-        <v>325</v>
-      </c>
-      <c r="I202">
-        <v>52.79010160000001</v>
-      </c>
-      <c r="J202">
-        <v>-0.1537024</v>
+        <v>341</v>
+      </c>
+      <c r="I202" t="s">
+        <v>501</v>
+      </c>
+      <c r="J202" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -4830,13 +5766,13 @@
         <v>201</v>
       </c>
       <c r="H203" t="s">
-        <v>326</v>
-      </c>
-      <c r="I203">
-        <v>53.58584</v>
-      </c>
-      <c r="J203">
-        <v>-0.186296</v>
+        <v>342</v>
+      </c>
+      <c r="I203" t="s">
+        <v>502</v>
+      </c>
+      <c r="J203" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -4844,377 +5780,13 @@
         <v>202</v>
       </c>
       <c r="H204" t="s">
-        <v>326</v>
-      </c>
-      <c r="I204">
-        <v>53.58584</v>
-      </c>
-      <c r="J204">
-        <v>-0.186296</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="H205" t="s">
-        <v>327</v>
-      </c>
-      <c r="I205">
-        <v>53.077959</v>
-      </c>
-      <c r="J205">
-        <v>-0.8723799999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="H206" t="s">
-        <v>328</v>
-      </c>
-      <c r="I206">
-        <v>57.55730699999999</v>
-      </c>
-      <c r="J206">
-        <v>-1.838958</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="H207" t="s">
-        <v>329</v>
-      </c>
-      <c r="I207">
-        <v>52.19173</v>
-      </c>
-      <c r="J207">
-        <v>-1.708298</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="H208" t="s">
-        <v>330</v>
-      </c>
-      <c r="I208">
-        <v>53.2293333</v>
-      </c>
-      <c r="J208">
-        <v>-2.4613056</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="H209" t="s">
-        <v>331</v>
-      </c>
-      <c r="I209">
-        <v>52.769383</v>
-      </c>
-      <c r="J209">
-        <v>0.18895</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="H210" t="s">
-        <v>332</v>
-      </c>
-      <c r="I210">
-        <v>52.769383</v>
-      </c>
-      <c r="J210">
-        <v>0.18895</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="H211" t="s">
-        <v>333</v>
-      </c>
-      <c r="I211">
-        <v>51.290898</v>
-      </c>
-      <c r="J211">
-        <v>0.02795</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="H212" t="s">
-        <v>162</v>
-      </c>
-      <c r="I212">
-        <v>57.1064575</v>
-      </c>
-      <c r="J212">
-        <v>-2.0986299</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="H213" t="s">
-        <v>334</v>
-      </c>
-      <c r="I213">
-        <v>54.9013657</v>
-      </c>
-      <c r="J213">
-        <v>-1.5281546</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="H214" t="s">
-        <v>335</v>
-      </c>
-      <c r="I214">
-        <v>52.2258137</v>
-      </c>
-      <c r="J214">
-        <v>0.09153409999999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="H215" t="s">
-        <v>336</v>
-      </c>
-      <c r="I215">
-        <v>54.330042</v>
-      </c>
-      <c r="J215">
-        <v>-1.504474</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="H216" t="s">
-        <v>337</v>
-      </c>
-      <c r="I216">
-        <v>54.74285</v>
-      </c>
-      <c r="J216">
-        <v>-1.811502</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="H217" t="s">
-        <v>338</v>
-      </c>
-      <c r="I217">
-        <v>53.8503468</v>
-      </c>
-      <c r="J217">
-        <v>-1.265239</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="H218" t="s">
-        <v>339</v>
-      </c>
-      <c r="I218">
-        <v>52.544921</v>
-      </c>
-      <c r="J218">
-        <v>-0.9486490000000001</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="H219" t="s">
-        <v>340</v>
-      </c>
-      <c r="I219">
-        <v>53.23161</v>
-      </c>
-      <c r="J219">
-        <v>-0.9824359999999999</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="H220" t="s">
-        <v>341</v>
-      </c>
-      <c r="I220">
-        <v>53.40216299999999</v>
-      </c>
-      <c r="J220">
-        <v>-2.454042</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="H221" t="s">
-        <v>342</v>
-      </c>
-      <c r="I221">
-        <v>53.3581028</v>
-      </c>
-      <c r="J221">
-        <v>-0.8123301000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="H222" t="s">
         <v>343</v>
       </c>
-      <c r="I222">
-        <v>53.329394</v>
-      </c>
-      <c r="J222">
-        <v>-2.757227</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="H223" t="s">
-        <v>344</v>
-      </c>
-      <c r="I223">
-        <v>52.7404409</v>
-      </c>
-      <c r="J223">
-        <v>0.3893959</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="H224" t="s">
-        <v>345</v>
-      </c>
-      <c r="I224">
-        <v>54.881806</v>
-      </c>
-      <c r="J224">
-        <v>-2.833422</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="H225" t="s">
-        <v>346</v>
-      </c>
-      <c r="I225">
-        <v>53.285594</v>
-      </c>
-      <c r="J225">
-        <v>-1.209239</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="H226" t="s">
-        <v>347</v>
-      </c>
-      <c r="I226">
-        <v>51.4420486</v>
-      </c>
-      <c r="J226">
-        <v>-0.6975152999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="H227" t="s">
-        <v>348</v>
-      </c>
-      <c r="I227">
-        <v>51.4420486</v>
-      </c>
-      <c r="J227">
-        <v>-0.6975152999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="H228" t="s">
-        <v>349</v>
-      </c>
-      <c r="I228">
-        <v>51.4420486</v>
-      </c>
-      <c r="J228">
-        <v>-0.6975152999999999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="H229" t="s">
-        <v>350</v>
-      </c>
-      <c r="I229">
-        <v>53.2646464</v>
-      </c>
-      <c r="J229">
-        <v>-2.5321749</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="H230" t="s">
-        <v>351</v>
-      </c>
-      <c r="I230">
-        <v>50.493452</v>
-      </c>
-      <c r="J230">
-        <v>-4.085603</v>
+      <c r="I204" t="s">
+        <v>503</v>
+      </c>
+      <c r="J204" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/GasGrid/PopulatingTools/Mapping and Location Tools/location.xlsx
+++ b/GasGrid/PopulatingTools/Mapping and Location Tools/location.xlsx
@@ -1057,7 +1057,7 @@
     <t>57.064863</t>
   </si>
   <si>
-    <t>52.97204079999999</t>
+    <t>52.010696</t>
   </si>
   <si>
     <t>53.7444253</t>
@@ -1114,7 +1114,7 @@
     <t>56.00870889999999</t>
   </si>
   <si>
-    <t>53.747488</t>
+    <t>53.7339662</t>
   </si>
   <si>
     <t>51.0243624</t>
@@ -1231,7 +1231,7 @@
     <t>51.82351</t>
   </si>
   <si>
-    <t>50.26389529999999</t>
+    <t>52.5124167</t>
   </si>
   <si>
     <t>52.87059199999999</t>
@@ -1249,7 +1249,7 @@
     <t>55.330004</t>
   </si>
   <si>
-    <t>51.5159594</t>
+    <t>51.8678487</t>
   </si>
   <si>
     <t>53.6363369</t>
@@ -1537,7 +1537,7 @@
     <t>-5.901249</t>
   </si>
   <si>
-    <t>-1.200032</t>
+    <t>-0.6274299999999999</t>
   </si>
   <si>
     <t>-0.9143972</t>
@@ -1594,7 +1594,7 @@
     <t>-3.700212499999999</t>
   </si>
   <si>
-    <t>-0.2712464</t>
+    <t>-0.2388755</t>
   </si>
   <si>
     <t>-1.4666744</t>
@@ -1711,7 +1711,7 @@
     <t>-3.097385</t>
   </si>
   <si>
-    <t>-5.1106656</t>
+    <t>-2.0403782</t>
   </si>
   <si>
     <t>-0.161466</t>
@@ -1729,7 +1729,7 @@
     <t>-1.67255</t>
   </si>
   <si>
-    <t>-0.1127379</t>
+    <t>-0.8296384</t>
   </si>
   <si>
     <t>-0.9232526000000001</t>

--- a/GasGrid/PopulatingTools/Mapping and Location Tools/location.xlsx
+++ b/GasGrid/PopulatingTools/Mapping and Location Tools/location.xlsx
@@ -190,7 +190,7 @@
     <t>57.57062000000001</t>
   </si>
   <si>
-    <t>53.2446664</t>
+    <t>53.2414752</t>
   </si>
   <si>
     <t>54.5435025</t>
@@ -265,7 +265,7 @@
     <t>-1.83803</t>
   </si>
   <si>
-    <t>-2.4370474</t>
+    <t>-2.4474069</t>
   </si>
   <si>
     <t>-1.3301732</t>
@@ -508,7 +508,7 @@
     <t xml:space="preserve"> Fordoun</t>
   </si>
   <si>
-    <t xml:space="preserve"> GooleGlass</t>
+    <t xml:space="preserve"> Goole</t>
   </si>
   <si>
     <t xml:space="preserve"> ICI Billnghm</t>
@@ -526,7 +526,7 @@
     <t xml:space="preserve"> Conoco Philips Teeside</t>
   </si>
   <si>
-    <t xml:space="preserve"> Rough</t>
+    <t>Easington</t>
   </si>
   <si>
     <t xml:space="preserve">St Fergus </t>
@@ -565,7 +565,7 @@
     <t>56.876579</t>
   </si>
   <si>
-    <t>52.5124167</t>
+    <t>53.702941</t>
   </si>
   <si>
     <t>54.612537</t>
@@ -583,7 +583,7 @@
     <t>54.61630299999999</t>
   </si>
   <si>
-    <t>51.5211024</t>
+    <t>54.783504</t>
   </si>
   <si>
     <t>56.0962295</t>
@@ -619,7 +619,7 @@
     <t>-2.412157</t>
   </si>
   <si>
-    <t>-2.0403782</t>
+    <t>-0.876381</t>
   </si>
   <si>
     <t>-1.290961</t>
@@ -637,7 +637,7 @@
     <t>-1.170778</t>
   </si>
   <si>
-    <t>-0.07249259999999999</t>
+    <t>-1.3516487</t>
   </si>
   <si>
     <t>-3.3098061</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve"> Alrewas</t>
   </si>
   <si>
-    <t xml:space="preserve"> Armadale</t>
+    <t xml:space="preserve"> Armadale West Lothian</t>
   </si>
   <si>
     <t xml:space="preserve"> Aspley</t>
@@ -991,10 +991,10 @@
     <t xml:space="preserve"> Winkfield</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yelverton</t>
-  </si>
-  <si>
-    <t>57.064863</t>
+    <t xml:space="preserve"> Yelverton Norwich</t>
+  </si>
+  <si>
+    <t>55.897742</t>
   </si>
   <si>
     <t>52.97204079999999</t>
@@ -1015,7 +1015,7 @@
     <t>54.205613</t>
   </si>
   <si>
-    <t>55.7845661</t>
+    <t>56.4783817</t>
   </si>
   <si>
     <t>55.9024</t>
@@ -1297,10 +1297,10 @@
     <t>51.4420486</t>
   </si>
   <si>
-    <t>50.493452</t>
-  </si>
-  <si>
-    <t>-5.901249</t>
+    <t>52.5745368</t>
+  </si>
+  <si>
+    <t>-3.702162</t>
   </si>
   <si>
     <t>-1.200032</t>
@@ -1321,7 +1321,7 @@
     <t>-1.452231</t>
   </si>
   <si>
-    <t>-4.3703994</t>
+    <t>-2.9748214</t>
   </si>
   <si>
     <t>-3.643118</t>
@@ -1603,7 +1603,7 @@
     <t>-0.6975153</t>
   </si>
   <si>
-    <t>-4.085603</t>
+    <t>1.3804957</t>
   </si>
   <si>
     <t>Power Station</t>
